--- a/capiq_data/in_process_data/IQ295224.xlsx
+++ b/capiq_data/in_process_data/IQ295224.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A49D583-9904-4D33-8C29-71454A4A4594}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F5342F-8226-44A0-A137-078FAE61417B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"e41009db-2aef-425a-9eb1-13572d8ca2eb"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"beb7335a-cdd8-4ba5-b797-754da5c448bd"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>80.343000000000004</v>
+        <v>84.183999999999997</v>
       </c>
       <c r="D2">
-        <v>388.45299999999997</v>
+        <v>263.24299999999999</v>
       </c>
       <c r="E2">
-        <v>237.511</v>
+        <v>123.497</v>
       </c>
       <c r="F2">
-        <v>274.322</v>
+        <v>209.96799999999999</v>
       </c>
       <c r="G2">
-        <v>1197.183</v>
+        <v>191.39099999999999</v>
       </c>
       <c r="H2">
-        <v>9679.1020000000008</v>
+        <v>2954.4349999999999</v>
       </c>
       <c r="I2">
-        <v>414.25</v>
+        <v>102.27500000000001</v>
       </c>
       <c r="J2">
-        <v>2601.67</v>
+        <v>1578.7760000000001</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>769.22</v>
+        <v>216.51400000000001</v>
       </c>
       <c r="O2">
-        <v>5453.0770000000002</v>
+        <v>2049.5300000000002</v>
       </c>
       <c r="P2">
-        <v>2601.67</v>
+        <v>1578.7760000000001</v>
       </c>
       <c r="Q2">
-        <v>32.994999999999997</v>
+        <v>-11.739000000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>2248</v>
+        <v>853</v>
       </c>
       <c r="T2">
-        <v>4226.0249999999996</v>
+        <v>904.90499999999997</v>
       </c>
       <c r="U2">
-        <v>111.16</v>
+        <v>26.158999999999999</v>
       </c>
       <c r="V2">
-        <v>383.30099999999999</v>
+        <v>145.00200000000001</v>
       </c>
       <c r="W2">
-        <v>-4.7050000000000001</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>40.347999999999999</v>
+        <v>-48.155000000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-57.213000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>80.343000000000004</v>
+        <v>84.183999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>348.59399999999999</v>
+        <v>67.918999999999997</v>
       </c>
       <c r="D3">
-        <v>474.76</v>
+        <v>257.98599999999999</v>
       </c>
       <c r="E3">
-        <v>276.33800000000002</v>
+        <v>102.437</v>
       </c>
       <c r="F3">
-        <v>342.34399999999999</v>
+        <v>202.184</v>
       </c>
       <c r="G3">
-        <v>1235.5930000000001</v>
+        <v>158.22800000000001</v>
       </c>
       <c r="H3">
-        <v>10025.986000000001</v>
+        <v>2922.2080000000001</v>
       </c>
       <c r="I3">
-        <v>369.33300000000003</v>
+        <v>112.59699999999999</v>
       </c>
       <c r="J3">
-        <v>2562.6880000000001</v>
+        <v>1550.23</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-105.83</v>
+        <v>-99.174999999999997</v>
       </c>
       <c r="N3">
-        <v>695.86400000000003</v>
+        <v>311.291</v>
       </c>
       <c r="O3">
-        <v>5472.4189999999999</v>
+        <v>2081.2359999999999</v>
       </c>
       <c r="P3">
-        <v>2564.2759999999998</v>
+        <v>1550.23</v>
       </c>
       <c r="Q3">
-        <v>409.49099999999999</v>
+        <v>-7.8540000000000001</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>4553.567</v>
+        <v>840.97199999999998</v>
       </c>
       <c r="U3">
-        <v>520.65099999999995</v>
+        <v>18.305</v>
       </c>
       <c r="V3">
-        <v>143.214</v>
+        <v>131.73400000000001</v>
       </c>
       <c r="W3">
-        <v>-7.2999999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-67.891000000000005</v>
+        <v>-50.548000000000002</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-37.048000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>348.59399999999999</v>
+        <v>67.918999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>245.577</v>
+        <v>28.338000000000001</v>
       </c>
       <c r="D4">
-        <v>554.601</v>
+        <v>227.43299999999999</v>
       </c>
       <c r="E4">
-        <v>266.476</v>
+        <v>100.22199999999999</v>
       </c>
       <c r="F4">
-        <v>425.72399999999999</v>
+        <v>175.459</v>
       </c>
       <c r="G4">
-        <v>1071.107</v>
+        <v>201.21899999999999</v>
       </c>
       <c r="H4">
-        <v>10353.088</v>
+        <v>3062.0540000000001</v>
       </c>
       <c r="I4">
-        <v>517.39599999999996</v>
+        <v>116.246</v>
       </c>
       <c r="J4">
-        <v>2570.9780000000001</v>
+        <v>1572.2270000000001</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>755.64099999999996</v>
+        <v>246.684</v>
       </c>
       <c r="O4">
-        <v>5537.1239999999998</v>
+        <v>2023.0519999999999</v>
       </c>
       <c r="P4">
-        <v>2570.9780000000001</v>
+        <v>1572.2270000000001</v>
       </c>
       <c r="Q4">
-        <v>-168.23</v>
+        <v>-7.8E-2</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>4815.9639999999999</v>
+        <v>1039.002</v>
       </c>
       <c r="U4">
-        <v>352.42099999999999</v>
+        <v>18.227</v>
       </c>
       <c r="V4">
-        <v>421.24</v>
+        <v>135.33000000000001</v>
       </c>
       <c r="W4">
-        <v>-4.7389999999999999</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-13.45</v>
+        <v>3.1840000000000002</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-45.808999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>245.577</v>
+        <v>28.338000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>351.464</v>
+        <v>24.602</v>
       </c>
       <c r="D5">
-        <v>577.726</v>
+        <v>200.059</v>
       </c>
       <c r="E5">
-        <v>272.154</v>
+        <v>90.388999999999996</v>
       </c>
       <c r="F5">
-        <v>425.60700000000003</v>
+        <v>148.346</v>
       </c>
       <c r="G5">
-        <v>1103.643</v>
+        <v>261.08100000000002</v>
       </c>
       <c r="H5">
-        <v>10985.043</v>
+        <v>3179.7869999999998</v>
       </c>
       <c r="I5">
-        <v>627.30399999999997</v>
+        <v>120.599</v>
       </c>
       <c r="J5">
-        <v>2600.0349999999999</v>
+        <v>1554.5519999999999</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1018,81 +1138,81 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>-125.05500000000001</v>
       </c>
       <c r="N5">
-        <v>776.11699999999996</v>
+        <v>246.822</v>
       </c>
       <c r="O5">
-        <v>5788.3760000000002</v>
+        <v>1995.6569999999999</v>
       </c>
       <c r="P5">
-        <v>2600.0349999999999</v>
+        <v>1554.5519999999999</v>
       </c>
       <c r="Q5">
-        <v>-141.85599999999999</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>5196.6670000000004</v>
+        <v>1184.1300000000001</v>
       </c>
       <c r="U5">
-        <v>210.565</v>
+        <v>20.736999999999998</v>
       </c>
       <c r="V5">
-        <v>465.584</v>
+        <v>122.9</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>5.5609999999999999</v>
+        <v>-45.823</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-6.7629999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>351.464</v>
+        <v>24.602</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>-111.146</v>
+        <v>-20.863</v>
       </c>
       <c r="D6">
-        <v>702.95399999999995</v>
+        <v>183.09899999999999</v>
       </c>
       <c r="E6">
-        <v>275.99099999999999</v>
+        <v>81.616</v>
       </c>
       <c r="F6">
-        <v>518.43399999999997</v>
+        <v>132.92400000000001</v>
       </c>
       <c r="G6">
-        <v>1402.2919999999999</v>
+        <v>255.643</v>
       </c>
       <c r="H6">
-        <v>11447.156000000001</v>
+        <v>3271.0529999999999</v>
       </c>
       <c r="I6">
-        <v>707.01099999999997</v>
+        <v>99.165000000000006</v>
       </c>
       <c r="J6">
-        <v>2528.9050000000002</v>
+        <v>1577.3040000000001</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1069.511</v>
+        <v>228.209</v>
       </c>
       <c r="O6">
-        <v>5796.018</v>
+        <v>1985.664</v>
       </c>
       <c r="P6">
-        <v>2544.5590000000002</v>
+        <v>1577.3040000000001</v>
       </c>
       <c r="Q6">
-        <v>326.91899999999998</v>
+        <v>-6.4029999999999996</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>3304</v>
+        <v>926</v>
       </c>
       <c r="T6">
-        <v>5651.1379999999999</v>
+        <v>1285.3889999999999</v>
       </c>
       <c r="U6">
-        <v>537.48400000000004</v>
+        <v>14.334</v>
       </c>
       <c r="V6">
-        <v>499.67599999999999</v>
+        <v>85.635999999999996</v>
       </c>
       <c r="W6">
-        <v>-4.7439999999999998</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>533.17700000000002</v>
+        <v>29.146999999999998</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,39 +1263,39 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>-111.146</v>
+        <v>-20.863</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>214.619</v>
+        <v>-1.9590000000000001</v>
       </c>
       <c r="D7">
-        <v>725.505</v>
+        <v>165.53899999999999</v>
       </c>
       <c r="E7">
-        <v>297.7</v>
+        <v>88.475999999999999</v>
       </c>
       <c r="F7">
-        <v>541.88699999999994</v>
+        <v>114.521</v>
       </c>
       <c r="G7">
-        <v>1367.1089999999999</v>
+        <v>167.24100000000001</v>
       </c>
       <c r="H7">
-        <v>12025.558999999999</v>
+        <v>3163.25</v>
       </c>
       <c r="I7">
-        <v>817.47699999999998</v>
+        <v>100.127</v>
       </c>
       <c r="J7">
-        <v>2620.6149999999998</v>
+        <v>1587.8530000000001</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,40 +1304,40 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-50.261000000000003</v>
+        <v>-15.29</v>
       </c>
       <c r="N7">
-        <v>1110.1220000000001</v>
+        <v>214.10900000000001</v>
       </c>
       <c r="O7">
-        <v>6192.8879999999999</v>
+        <v>1971.4390000000001</v>
       </c>
       <c r="P7">
-        <v>2632.6489999999999</v>
+        <v>1587.8530000000001</v>
       </c>
       <c r="Q7">
-        <v>-220.566</v>
+        <v>2.423</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>5832.6710000000003</v>
+        <v>1191.8109999999999</v>
       </c>
       <c r="U7">
-        <v>316.91800000000001</v>
+        <v>16.757000000000001</v>
       </c>
       <c r="V7">
-        <v>426.08600000000001</v>
+        <v>50.036000000000001</v>
       </c>
       <c r="W7">
-        <v>-4.2999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>33.014000000000003</v>
+        <v>-8.0649999999999995</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,39 +1346,39 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>214.619</v>
+        <v>-1.9590000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>-70.391999999999996</v>
+        <v>11.141999999999999</v>
       </c>
       <c r="D8">
-        <v>637.91700000000003</v>
+        <v>172.43</v>
       </c>
       <c r="E8">
-        <v>250.19200000000001</v>
+        <v>83.085999999999999</v>
       </c>
       <c r="F8">
-        <v>442.07900000000001</v>
+        <v>122.71299999999999</v>
       </c>
       <c r="G8">
-        <v>1284.0329999999999</v>
+        <v>136.00800000000001</v>
       </c>
       <c r="H8">
-        <v>12569.734</v>
+        <v>3278.808</v>
       </c>
       <c r="I8">
-        <v>800.95799999999997</v>
+        <v>120.407</v>
       </c>
       <c r="J8">
-        <v>3285.4969999999998</v>
+        <v>1461.7940000000001</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1267,40 +1387,40 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>-371.036</v>
       </c>
       <c r="N8">
-        <v>1128.991</v>
+        <v>224.71600000000001</v>
       </c>
       <c r="O8">
-        <v>6812.7579999999998</v>
+        <v>1856.914</v>
       </c>
       <c r="P8">
-        <v>3285.4969999999998</v>
+        <v>1461.7940000000001</v>
       </c>
       <c r="Q8">
-        <v>0.85099999999999998</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>5756.9759999999997</v>
+        <v>1421.894</v>
       </c>
       <c r="U8">
-        <v>317.76900000000001</v>
+        <v>16.728000000000002</v>
       </c>
       <c r="V8">
-        <v>499.32400000000001</v>
+        <v>90.563999999999993</v>
       </c>
       <c r="W8">
-        <v>-4.9850000000000003</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>643.92700000000002</v>
+        <v>81.506</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1429,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>-70.391999999999996</v>
+        <v>11.141999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>19.224</v>
+        <v>-0.89</v>
       </c>
       <c r="D9">
-        <v>719.79200000000003</v>
+        <v>168.31700000000001</v>
       </c>
       <c r="E9">
-        <v>298.32</v>
+        <v>76.959999999999994</v>
       </c>
       <c r="F9">
-        <v>490.28</v>
+        <v>118.34699999999999</v>
       </c>
       <c r="G9">
-        <v>1579.884</v>
+        <v>135.90199999999999</v>
       </c>
       <c r="H9">
-        <v>12814.001</v>
+        <v>3389.4780000000001</v>
       </c>
       <c r="I9">
-        <v>791.13599999999997</v>
+        <v>93.426000000000002</v>
       </c>
       <c r="J9">
-        <v>3562.07</v>
+        <v>1650.7560000000001</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1350,40 +1470,40 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>-56.256999999999998</v>
       </c>
       <c r="N9">
-        <v>991.84799999999996</v>
+        <v>204.09399999999999</v>
       </c>
       <c r="O9">
-        <v>7013.8919999999998</v>
+        <v>1994.3779999999999</v>
       </c>
       <c r="P9">
-        <v>3562.07</v>
+        <v>1650.7560000000001</v>
       </c>
       <c r="Q9">
-        <v>16.117000000000001</v>
+        <v>8.7739999999999991</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>5800.1090000000004</v>
+        <v>1395.1</v>
       </c>
       <c r="U9">
-        <v>333.88600000000002</v>
+        <v>25.501999999999999</v>
       </c>
       <c r="V9">
-        <v>432.06</v>
+        <v>87.653999999999996</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>278.08</v>
+        <v>90.403000000000006</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,39 +1512,39 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>19.224</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>28.834</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="D10">
-        <v>602.25599999999997</v>
+        <v>195.494</v>
       </c>
       <c r="E10">
-        <v>316.85399999999998</v>
+        <v>97.774000000000001</v>
       </c>
       <c r="F10">
-        <v>346.61799999999999</v>
+        <v>146.62899999999999</v>
       </c>
       <c r="G10">
-        <v>1050.355</v>
+        <v>147.09299999999999</v>
       </c>
       <c r="H10">
-        <v>13069.03</v>
+        <v>3455.116</v>
       </c>
       <c r="I10">
-        <v>808.077</v>
+        <v>124.774</v>
       </c>
       <c r="J10">
-        <v>3730.9169999999999</v>
+        <v>1668.5360000000001</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1034.79</v>
+        <v>274.59199999999998</v>
       </c>
       <c r="O10">
-        <v>7201.7219999999998</v>
+        <v>2080.2190000000001</v>
       </c>
       <c r="P10">
-        <v>3730.9169999999999</v>
+        <v>1668.5360000000001</v>
       </c>
       <c r="Q10">
-        <v>-104.49</v>
+        <v>-17.012</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>3667</v>
+        <v>979</v>
       </c>
       <c r="T10">
-        <v>5867.308</v>
+        <v>1374.8969999999999</v>
       </c>
       <c r="U10">
-        <v>229.39599999999999</v>
+        <v>8.49</v>
       </c>
       <c r="V10">
-        <v>480.10700000000003</v>
+        <v>103.991</v>
       </c>
       <c r="W10">
-        <v>-4.9930000000000003</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>155.72399999999999</v>
+        <v>7.0289999999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,39 +1595,39 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>28.834</v>
+        <v>18.420000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>101</v>
+        <v>84.22</v>
       </c>
       <c r="D11">
-        <v>778</v>
+        <v>284.99900000000002</v>
       </c>
       <c r="E11">
-        <v>355.09300000000002</v>
+        <v>125.374</v>
       </c>
       <c r="F11">
-        <v>520</v>
+        <v>217.13200000000001</v>
       </c>
       <c r="G11">
-        <v>1196.414</v>
+        <v>184.54499999999999</v>
       </c>
       <c r="H11">
-        <v>13761.297</v>
+        <v>3722.4070000000002</v>
       </c>
       <c r="I11">
-        <v>814.56299999999999</v>
+        <v>161.09800000000001</v>
       </c>
       <c r="J11">
-        <v>3023.0639999999999</v>
+        <v>1767.65</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,40 +1636,40 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-1012</v>
+        <v>-15</v>
       </c>
       <c r="N11">
-        <v>971.86599999999999</v>
+        <v>356.46800000000002</v>
       </c>
       <c r="O11">
-        <v>6495.2259999999997</v>
+        <v>2310.4520000000002</v>
       </c>
       <c r="P11">
-        <v>3023.0639999999999</v>
+        <v>1767.65</v>
       </c>
       <c r="Q11">
-        <v>201</v>
+        <v>-1.6319999999999999</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>7266.0709999999999</v>
+        <v>1411.9549999999999</v>
       </c>
       <c r="U11">
-        <v>430.298</v>
+        <v>6.8579999999999997</v>
       </c>
       <c r="V11">
-        <v>360</v>
+        <v>136.78899999999999</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>548</v>
+        <v>100.59399999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,39 +1678,39 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>101</v>
+        <v>84.22</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>337</v>
+        <v>77.185000000000002</v>
       </c>
       <c r="D12">
-        <v>793</v>
+        <v>344.24</v>
       </c>
       <c r="E12">
-        <v>345.81200000000001</v>
+        <v>115.791</v>
       </c>
       <c r="F12">
-        <v>550</v>
+        <v>270.39699999999999</v>
       </c>
       <c r="G12">
-        <v>1465.192</v>
+        <v>185.22800000000001</v>
       </c>
       <c r="H12">
-        <v>14162.587</v>
+        <v>3700.6880000000001</v>
       </c>
       <c r="I12">
-        <v>864.98299999999995</v>
+        <v>125.82</v>
       </c>
       <c r="J12">
-        <v>2823.4279999999999</v>
+        <v>1710.7370000000001</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1599,40 +1719,40 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>-112.349</v>
       </c>
       <c r="N12">
-        <v>1012.128</v>
+        <v>359.17899999999997</v>
       </c>
       <c r="O12">
-        <v>6514.43</v>
+        <v>2286.7020000000002</v>
       </c>
       <c r="P12">
-        <v>2823.4279999999999</v>
+        <v>1710.7370000000001</v>
       </c>
       <c r="Q12">
-        <v>266</v>
+        <v>5.298</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>7648.1570000000002</v>
+        <v>1413.9860000000001</v>
       </c>
       <c r="U12">
-        <v>695.625</v>
+        <v>12.156000000000001</v>
       </c>
       <c r="V12">
-        <v>577</v>
+        <v>189.864</v>
       </c>
       <c r="W12">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-204</v>
+        <v>-57.289000000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,39 +1761,39 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>337</v>
+        <v>77.185000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>91</v>
+        <v>191.81299999999999</v>
       </c>
       <c r="D13">
-        <v>904</v>
+        <v>336.47300000000001</v>
       </c>
       <c r="E13">
-        <v>408.24</v>
+        <v>97.388000000000005</v>
       </c>
       <c r="F13">
-        <v>617</v>
+        <v>260.709</v>
       </c>
       <c r="G13">
-        <v>1533.261</v>
+        <v>195.738</v>
       </c>
       <c r="H13">
-        <v>14544.944</v>
+        <v>3841.61</v>
       </c>
       <c r="I13">
-        <v>1035.884</v>
+        <v>141.67400000000001</v>
       </c>
       <c r="J13">
-        <v>2854.3389999999999</v>
+        <v>1621.364</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1682,40 +1802,40 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>-142.91300000000001</v>
       </c>
       <c r="N13">
-        <v>1214.8109999999999</v>
+        <v>322.83100000000002</v>
       </c>
       <c r="O13">
-        <v>6782.1930000000002</v>
+        <v>2125.7049999999999</v>
       </c>
       <c r="P13">
-        <v>2854.3389999999999</v>
+        <v>1621.364</v>
       </c>
       <c r="Q13">
-        <v>48</v>
+        <v>0.495</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>7762.7510000000002</v>
+        <v>1715.905</v>
       </c>
       <c r="U13">
-        <v>744.12</v>
+        <v>12.651</v>
       </c>
       <c r="V13">
-        <v>668</v>
+        <v>222.465</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>28</v>
+        <v>-94.388000000000005</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,39 +1844,39 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>91</v>
+        <v>191.81299999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>-1367</v>
+        <v>57.374000000000002</v>
       </c>
       <c r="D14">
-        <v>942</v>
+        <v>308.15899999999999</v>
       </c>
       <c r="E14">
-        <v>431</v>
+        <v>111.033</v>
       </c>
       <c r="F14">
-        <v>577</v>
+        <v>270.88299999999998</v>
       </c>
       <c r="G14">
-        <v>1730</v>
+        <v>205.11500000000001</v>
       </c>
       <c r="H14">
-        <v>12294</v>
+        <v>3951.5720000000001</v>
       </c>
       <c r="I14">
-        <v>1027</v>
+        <v>186.41800000000001</v>
       </c>
       <c r="J14">
-        <v>2663</v>
+        <v>1555.461</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1250</v>
+        <v>429.75200000000001</v>
       </c>
       <c r="O14">
-        <v>5679</v>
+        <v>2191.8000000000002</v>
       </c>
       <c r="P14">
-        <v>2663</v>
+        <v>1555.461</v>
       </c>
       <c r="Q14">
-        <v>-351</v>
+        <v>6.6479999999999997</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>4203</v>
+        <v>1014</v>
       </c>
       <c r="T14">
-        <v>6615</v>
+        <v>1759.7719999999999</v>
       </c>
       <c r="U14">
-        <v>393</v>
+        <v>19.298999999999999</v>
       </c>
       <c r="V14">
-        <v>541</v>
+        <v>217.00299999999999</v>
       </c>
       <c r="W14">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-214</v>
+        <v>-43.079000000000001</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>-1367</v>
+        <v>57.374000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>123</v>
+        <v>60.188000000000002</v>
       </c>
       <c r="D15">
-        <v>1035</v>
+        <v>427.40499999999997</v>
       </c>
       <c r="E15">
-        <v>437</v>
+        <v>145.733</v>
       </c>
       <c r="F15">
-        <v>679</v>
+        <v>352.70400000000001</v>
       </c>
       <c r="G15">
-        <v>1542</v>
+        <v>222.71299999999999</v>
       </c>
       <c r="H15">
-        <v>12465</v>
+        <v>3928.2840000000001</v>
       </c>
       <c r="I15">
-        <v>963</v>
+        <v>175.90100000000001</v>
       </c>
       <c r="J15">
-        <v>2710</v>
+        <v>1456.6949999999999</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,40 +1968,40 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1238</v>
+        <v>463.57799999999997</v>
       </c>
       <c r="O15">
-        <v>5741</v>
+        <v>2170.4569999999999</v>
       </c>
       <c r="P15">
-        <v>2710</v>
+        <v>1456.6949999999999</v>
       </c>
       <c r="Q15">
-        <v>-136</v>
+        <v>-10.276999999999999</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>4350</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>6724</v>
+        <v>1757.827</v>
       </c>
       <c r="U15">
-        <v>257</v>
+        <v>9.0220000000000002</v>
       </c>
       <c r="V15">
-        <v>466</v>
+        <v>253.63</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>24</v>
+        <v>-91.426000000000002</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,39 +2010,39 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>123</v>
+        <v>60.188000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>69.701999999999998</v>
       </c>
       <c r="D16">
-        <v>1138</v>
+        <v>412.76400000000001</v>
       </c>
       <c r="E16">
-        <v>457</v>
+        <v>166.12</v>
       </c>
       <c r="F16">
-        <v>713</v>
+        <v>339.85300000000001</v>
       </c>
       <c r="G16">
-        <v>1380</v>
+        <v>247.66</v>
       </c>
       <c r="H16">
-        <v>12710</v>
+        <v>3944.4609999999998</v>
       </c>
       <c r="I16">
-        <v>1126</v>
+        <v>170.26900000000001</v>
       </c>
       <c r="J16">
-        <v>2659</v>
+        <v>1391.3630000000001</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1465</v>
+        <v>459.17200000000003</v>
       </c>
       <c r="O16">
-        <v>5960</v>
+        <v>2159.5479999999998</v>
       </c>
       <c r="P16">
-        <v>2659</v>
+        <v>1391.3630000000001</v>
       </c>
       <c r="Q16">
-        <v>188</v>
+        <v>6.19</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>6750</v>
+        <v>1784.913</v>
       </c>
       <c r="U16">
-        <v>445</v>
+        <v>15.212</v>
       </c>
       <c r="V16">
-        <v>717</v>
+        <v>264.70400000000001</v>
       </c>
       <c r="W16">
-        <v>-6</v>
+        <v>-12.005000000000001</v>
       </c>
       <c r="X16">
-        <v>-52</v>
+        <v>-66.108000000000004</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,39 +2093,39 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>69.701999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>375</v>
+        <v>80.915999999999997</v>
       </c>
       <c r="D17">
-        <v>1167</v>
+        <v>425.57499999999999</v>
       </c>
       <c r="E17">
-        <v>483</v>
+        <v>173.34299999999999</v>
       </c>
       <c r="F17">
-        <v>744</v>
+        <v>350.48</v>
       </c>
       <c r="G17">
-        <v>1491</v>
+        <v>259.21899999999999</v>
       </c>
       <c r="H17">
-        <v>13272</v>
+        <v>6596.223</v>
       </c>
       <c r="I17">
-        <v>1308</v>
+        <v>177.58500000000001</v>
       </c>
       <c r="J17">
-        <v>2662</v>
+        <v>2464.902</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2014,40 +2134,40 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>-109.002</v>
       </c>
       <c r="N17">
-        <v>1439</v>
+        <v>636.86</v>
       </c>
       <c r="O17">
-        <v>6119</v>
+        <v>3955.3150000000001</v>
       </c>
       <c r="P17">
-        <v>2662</v>
+        <v>2464.902</v>
       </c>
       <c r="Q17">
-        <v>105</v>
+        <v>-12.263</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>7153</v>
+        <v>2640.9079999999999</v>
       </c>
       <c r="U17">
-        <v>550</v>
+        <v>2.9489999999999998</v>
       </c>
       <c r="V17">
-        <v>615</v>
+        <v>239.13900000000001</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>15</v>
+        <v>723.73900000000003</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,39 +2176,39 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>374</v>
+        <v>80.915999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>431</v>
+        <v>102.048</v>
       </c>
       <c r="D18">
-        <v>985</v>
+        <v>501.62700000000001</v>
       </c>
       <c r="E18">
-        <v>436</v>
+        <v>209.297</v>
       </c>
       <c r="F18">
-        <v>565</v>
+        <v>408.22699999999998</v>
       </c>
       <c r="G18">
-        <v>2359</v>
+        <v>393.42500000000001</v>
       </c>
       <c r="H18">
-        <v>14909</v>
+        <v>6733.4870000000001</v>
       </c>
       <c r="I18">
-        <v>1297</v>
+        <v>216.05099999999999</v>
       </c>
       <c r="J18">
-        <v>2648</v>
+        <v>2385.9499999999998</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1419</v>
+        <v>544.45899999999995</v>
       </c>
       <c r="O18">
-        <v>6320</v>
+        <v>3901.7069999999999</v>
       </c>
       <c r="P18">
-        <v>2651</v>
+        <v>2385.9499999999998</v>
       </c>
       <c r="Q18">
-        <v>475</v>
+        <v>4.3079999999999998</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>4075</v>
+        <v>1550</v>
       </c>
       <c r="T18">
-        <v>8589</v>
+        <v>2831.78</v>
       </c>
       <c r="U18">
-        <v>1025</v>
+        <v>7.2569999999999997</v>
       </c>
       <c r="V18">
-        <v>568</v>
+        <v>294.08600000000001</v>
       </c>
       <c r="W18">
-        <v>-6</v>
+        <v>-14.552</v>
       </c>
       <c r="X18">
-        <v>978</v>
+        <v>-151.947</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,39 +2259,39 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>431</v>
+        <v>102.048</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>-78</v>
+        <v>84.656999999999996</v>
       </c>
       <c r="D19">
-        <v>620</v>
+        <v>323.11500000000001</v>
       </c>
       <c r="E19">
-        <v>341</v>
+        <v>222.74199999999999</v>
       </c>
       <c r="F19">
-        <v>287</v>
+        <v>242.16900000000001</v>
       </c>
       <c r="G19">
-        <v>1694</v>
+        <v>487.86099999999999</v>
       </c>
       <c r="H19">
-        <v>14347</v>
+        <v>6882.3370000000004</v>
       </c>
       <c r="I19">
-        <v>872</v>
+        <v>282.85399999999998</v>
       </c>
       <c r="J19">
-        <v>2668</v>
+        <v>1831.9380000000001</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,40 +2300,40 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-708.71299999999997</v>
       </c>
       <c r="N19">
-        <v>1162</v>
+        <v>922.99900000000002</v>
       </c>
       <c r="O19">
-        <v>5848</v>
+        <v>4375.3969999999999</v>
       </c>
       <c r="P19">
-        <v>2681</v>
+        <v>1831.9380000000001</v>
       </c>
       <c r="Q19">
-        <v>-642</v>
+        <v>8.782</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>8499</v>
+        <v>2506.94</v>
       </c>
       <c r="U19">
-        <v>383</v>
+        <v>16.039000000000001</v>
       </c>
       <c r="V19">
-        <v>104</v>
+        <v>303.654</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-29</v>
+        <v>-688.202</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,39 +2342,39 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>-78</v>
+        <v>84.656999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>-218</v>
+        <v>185.559</v>
       </c>
       <c r="D20">
-        <v>832</v>
+        <v>320.33699999999999</v>
       </c>
       <c r="E20">
-        <v>388</v>
+        <v>262.18900000000002</v>
       </c>
       <c r="F20">
-        <v>393</v>
+        <v>240.697</v>
       </c>
       <c r="G20">
-        <v>1305</v>
+        <v>544.87599999999998</v>
       </c>
       <c r="H20">
-        <v>14002</v>
+        <v>6914.5770000000002</v>
       </c>
       <c r="I20">
-        <v>818</v>
+        <v>273.48399999999998</v>
       </c>
       <c r="J20">
-        <v>2672</v>
+        <v>1394.739</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2263,40 +2383,40 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>-664.96900000000005</v>
       </c>
       <c r="N20">
-        <v>1033</v>
+        <v>885.08100000000002</v>
       </c>
       <c r="O20">
-        <v>5694</v>
+        <v>4268.9440000000004</v>
       </c>
       <c r="P20">
-        <v>2672</v>
+        <v>1394.739</v>
       </c>
       <c r="Q20">
-        <v>-164</v>
+        <v>42.411999999999999</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>8308</v>
+        <v>2645.6329999999998</v>
       </c>
       <c r="U20">
-        <v>219</v>
+        <v>58.451000000000001</v>
       </c>
       <c r="V20">
-        <v>328</v>
+        <v>309.91699999999997</v>
       </c>
       <c r="W20">
-        <v>-6</v>
+        <v>-14.332000000000001</v>
       </c>
       <c r="X20">
-        <v>-3</v>
+        <v>-536.16499999999996</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,39 +2425,39 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>-218</v>
+        <v>185.559</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>646</v>
+        <v>123.57299999999999</v>
       </c>
       <c r="D21">
-        <v>883</v>
+        <v>389.67899999999997</v>
       </c>
       <c r="E21">
-        <v>413</v>
+        <v>257.08600000000001</v>
       </c>
       <c r="F21">
-        <v>306</v>
+        <v>296.87</v>
       </c>
       <c r="G21">
-        <v>2403</v>
+        <v>649.63599999999997</v>
       </c>
       <c r="H21">
-        <v>14965</v>
+        <v>7227.6130000000003</v>
       </c>
       <c r="I21">
-        <v>838</v>
+        <v>273.541</v>
       </c>
       <c r="J21">
-        <v>2675</v>
+        <v>1939.296</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2346,40 +2466,40 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>-66.966999999999999</v>
       </c>
       <c r="N21">
-        <v>1147</v>
+        <v>1132.1759999999999</v>
       </c>
       <c r="O21">
-        <v>5984</v>
+        <v>5103.3630000000003</v>
       </c>
       <c r="P21">
-        <v>2677</v>
+        <v>1939.296</v>
       </c>
       <c r="Q21">
-        <v>362</v>
+        <v>6.0570000000000004</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>8981</v>
+        <v>2124.25</v>
       </c>
       <c r="U21">
-        <v>581</v>
+        <v>64.507999999999996</v>
       </c>
       <c r="V21">
-        <v>357</v>
+        <v>309.803</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>7</v>
+        <v>52.616</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,39 +2508,39 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>646</v>
+        <v>123.57299999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-623</v>
+        <v>140.779</v>
       </c>
       <c r="D22">
-        <v>807</v>
+        <v>419.39800000000002</v>
       </c>
       <c r="E22">
-        <v>384</v>
+        <v>334.86399999999998</v>
       </c>
       <c r="F22">
-        <v>220</v>
+        <v>326.35199999999998</v>
       </c>
       <c r="G22">
-        <v>3194</v>
+        <v>623.80399999999997</v>
       </c>
       <c r="H22">
-        <v>15154</v>
+        <v>7329.2340000000004</v>
       </c>
       <c r="I22">
-        <v>867</v>
+        <v>345.20400000000001</v>
       </c>
       <c r="J22">
-        <v>3207</v>
+        <v>2058.4119999999998</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1462</v>
+        <v>1033.355</v>
       </c>
       <c r="O22">
-        <v>6779</v>
+        <v>5112.1319999999996</v>
       </c>
       <c r="P22">
-        <v>3655</v>
+        <v>2058.4119999999998</v>
       </c>
       <c r="Q22">
-        <v>810</v>
+        <v>-45.706000000000003</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>3732</v>
+        <v>1694</v>
       </c>
       <c r="T22">
-        <v>8375</v>
+        <v>2217.1019999999999</v>
       </c>
       <c r="U22">
-        <v>1391</v>
+        <v>18.802</v>
       </c>
       <c r="V22">
-        <v>459</v>
+        <v>353.78</v>
       </c>
       <c r="W22">
-        <v>-6</v>
+        <v>-16.007000000000001</v>
       </c>
       <c r="X22">
-        <v>983</v>
+        <v>-181.88300000000001</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>-623</v>
+        <v>140.779</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>-267</v>
+        <v>543.20699999999999</v>
       </c>
       <c r="D23">
-        <v>632</v>
+        <v>379.46800000000002</v>
       </c>
       <c r="E23">
-        <v>351</v>
+        <v>186.226</v>
       </c>
       <c r="F23">
-        <v>204</v>
+        <v>284.78500000000003</v>
       </c>
       <c r="G23">
-        <v>4081</v>
+        <v>1212.6379999999999</v>
       </c>
       <c r="H23">
-        <v>16171</v>
+        <v>7109.2489999999998</v>
       </c>
       <c r="I23">
-        <v>724</v>
+        <v>237.40199999999999</v>
       </c>
       <c r="J23">
-        <v>2726</v>
+        <v>1159.7629999999999</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-1264.271</v>
       </c>
       <c r="N23">
-        <v>1783</v>
+        <v>995.08100000000002</v>
       </c>
       <c r="O23">
-        <v>6476</v>
+        <v>4153.4380000000001</v>
       </c>
       <c r="P23">
-        <v>3662</v>
+        <v>1159.7629999999999</v>
       </c>
       <c r="Q23">
-        <v>221</v>
+        <v>24.18</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>9695</v>
+        <v>2955.8110000000001</v>
       </c>
       <c r="U23">
-        <v>1612</v>
+        <v>42.981999999999999</v>
       </c>
       <c r="V23">
-        <v>110</v>
+        <v>318.238</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>1574</v>
+        <v>-915.47400000000005</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-914</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>-267</v>
+        <v>543.20699999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>-268</v>
+        <v>88.039000000000001</v>
       </c>
       <c r="D24">
-        <v>1008</v>
+        <v>345.05399999999997</v>
       </c>
       <c r="E24">
-        <v>434</v>
+        <v>166.11</v>
       </c>
       <c r="F24">
-        <v>421</v>
+        <v>263.68299999999999</v>
       </c>
       <c r="G24">
-        <v>4699</v>
+        <v>895.07100000000003</v>
       </c>
       <c r="H24">
-        <v>16808</v>
+        <v>7067.4279999999999</v>
       </c>
       <c r="I24">
-        <v>732</v>
+        <v>238.41</v>
       </c>
       <c r="J24">
-        <v>2734</v>
+        <v>1263.9939999999999</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1831</v>
+        <v>881.08799999999997</v>
       </c>
       <c r="O24">
-        <v>6422</v>
+        <v>4152.5010000000002</v>
       </c>
       <c r="P24">
-        <v>3673</v>
+        <v>1263.9939999999999</v>
       </c>
       <c r="Q24">
-        <v>213</v>
+        <v>414.06</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>10386</v>
+        <v>2914.9270000000001</v>
       </c>
       <c r="U24">
-        <v>1825</v>
+        <v>457.04199999999997</v>
       </c>
       <c r="V24">
-        <v>409</v>
+        <v>158.64599999999999</v>
       </c>
       <c r="W24">
-        <v>-7</v>
+        <v>-15.51</v>
       </c>
       <c r="X24">
-        <v>930</v>
+        <v>-90.260999999999996</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-580</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>-268</v>
+        <v>88.039000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>80.799000000000007</v>
       </c>
       <c r="D25">
-        <v>1087</v>
+        <v>384.11200000000002</v>
       </c>
       <c r="E25">
-        <v>447</v>
+        <v>160.03100000000001</v>
       </c>
       <c r="F25">
-        <v>456</v>
+        <v>295.42500000000001</v>
       </c>
       <c r="G25">
-        <v>3454</v>
+        <v>518.15499999999997</v>
       </c>
       <c r="H25">
-        <v>16325</v>
+        <v>6998.2849999999999</v>
       </c>
       <c r="I25">
-        <v>766</v>
+        <v>333.47500000000002</v>
       </c>
       <c r="J25">
-        <v>2734</v>
+        <v>1194.556</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2678,81 +2798,81 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>-256.74400000000003</v>
       </c>
       <c r="N25">
-        <v>1377</v>
+        <v>878.48699999999997</v>
       </c>
       <c r="O25">
-        <v>5894</v>
+        <v>4028.951</v>
       </c>
       <c r="P25">
-        <v>3219</v>
+        <v>1194.556</v>
       </c>
       <c r="Q25">
-        <v>-934</v>
+        <v>-356.97</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>10431</v>
+        <v>2969.3339999999998</v>
       </c>
       <c r="U25">
-        <v>891</v>
+        <v>100.072</v>
       </c>
       <c r="V25">
-        <v>440</v>
+        <v>179.786</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-449</v>
+        <v>-169.49100000000001</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-551</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>22</v>
+        <v>80.799000000000007</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>-43</v>
+        <v>27.686</v>
       </c>
       <c r="D26">
-        <v>782</v>
+        <v>350.30599999999998</v>
       </c>
       <c r="E26">
-        <v>517</v>
+        <v>195.53399999999999</v>
       </c>
       <c r="F26">
-        <v>550</v>
+        <v>265.98099999999999</v>
       </c>
       <c r="G26">
-        <v>3298</v>
+        <v>536.55799999999999</v>
       </c>
       <c r="H26">
-        <v>16459</v>
+        <v>7355.3990000000003</v>
       </c>
       <c r="I26">
-        <v>853</v>
+        <v>349.82</v>
       </c>
       <c r="J26">
-        <v>2728</v>
+        <v>1497.162</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1566</v>
+        <v>886.97900000000004</v>
       </c>
       <c r="O26">
-        <v>6048</v>
+        <v>4356.3280000000004</v>
       </c>
       <c r="P26">
-        <v>3213</v>
+        <v>1497.162</v>
       </c>
       <c r="Q26">
-        <v>227</v>
+        <v>-93.039000000000001</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>3604</v>
+        <v>1624</v>
       </c>
       <c r="T26">
-        <v>10411</v>
+        <v>2999.0709999999999</v>
       </c>
       <c r="U26">
-        <v>1118</v>
+        <v>7.0330000000000004</v>
       </c>
       <c r="V26">
-        <v>540</v>
+        <v>98.158000000000001</v>
       </c>
       <c r="W26">
-        <v>-6</v>
+        <v>-16.216000000000001</v>
       </c>
       <c r="X26">
-        <v>-7</v>
+        <v>261.68299999999999</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>707</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>-43</v>
+        <v>27.686</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>-42</v>
+        <v>29.593</v>
       </c>
       <c r="D27">
-        <v>1125</v>
+        <v>353.58199999999999</v>
       </c>
       <c r="E27">
-        <v>426</v>
+        <v>211.571</v>
       </c>
       <c r="F27">
-        <v>602</v>
+        <v>264.13400000000001</v>
       </c>
       <c r="G27">
-        <v>2940</v>
+        <v>513.81399999999996</v>
       </c>
       <c r="H27">
-        <v>15749</v>
+        <v>7700.317</v>
       </c>
       <c r="I27">
-        <v>797</v>
+        <v>392.40899999999999</v>
       </c>
       <c r="J27">
-        <v>2729</v>
+        <v>1859.2550000000001</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-485</v>
+        <v>-361.55500000000001</v>
       </c>
       <c r="N27">
-        <v>952</v>
+        <v>932.36900000000003</v>
       </c>
       <c r="O27">
-        <v>5401</v>
+        <v>4717.5370000000003</v>
       </c>
       <c r="P27">
-        <v>2729</v>
+        <v>1859.2550000000001</v>
       </c>
       <c r="Q27">
-        <v>-455</v>
+        <v>6.3170000000000002</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>10348</v>
+        <v>2982.78</v>
       </c>
       <c r="U27">
-        <v>663</v>
+        <v>13.35</v>
       </c>
       <c r="V27">
-        <v>364</v>
+        <v>129.99700000000001</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-521</v>
+        <v>323.64299999999997</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>-42</v>
+        <v>29.593</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>233</v>
+        <v>36.479999999999997</v>
       </c>
       <c r="D28">
-        <v>1119</v>
+        <v>424.608</v>
       </c>
       <c r="E28">
-        <v>491</v>
+        <v>198.72499999999999</v>
       </c>
       <c r="F28">
-        <v>556</v>
+        <v>319.23</v>
       </c>
       <c r="G28">
-        <v>3064</v>
+        <v>597.22199999999998</v>
       </c>
       <c r="H28">
-        <v>16271</v>
+        <v>8137.8630000000003</v>
       </c>
       <c r="I28">
-        <v>934</v>
+        <v>323.60199999999998</v>
       </c>
       <c r="J28">
-        <v>2281</v>
+        <v>2229.9879999999998</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1558</v>
+        <v>880.19100000000003</v>
       </c>
       <c r="O28">
-        <v>5669</v>
+        <v>5047.6409999999996</v>
       </c>
       <c r="P28">
-        <v>2730</v>
+        <v>2229.9879999999998</v>
       </c>
       <c r="Q28">
-        <v>-3</v>
+        <v>11.968999999999999</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>10602</v>
+        <v>3090.2220000000002</v>
       </c>
       <c r="U28">
-        <v>660</v>
+        <v>25.318000000000001</v>
       </c>
       <c r="V28">
-        <v>483</v>
+        <v>217.363</v>
       </c>
       <c r="W28">
-        <v>-7</v>
+        <v>-16.035</v>
       </c>
       <c r="X28">
-        <v>-7</v>
+        <v>333.06900000000002</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>233</v>
+        <v>36.479999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>-23</v>
+        <v>101.92700000000001</v>
       </c>
       <c r="D29">
-        <v>1283</v>
+        <v>458.89800000000002</v>
       </c>
       <c r="E29">
-        <v>649</v>
+        <v>230.274</v>
       </c>
       <c r="F29">
-        <v>636</v>
+        <v>345.34399999999999</v>
       </c>
       <c r="G29">
-        <v>2901</v>
+        <v>1307.125</v>
       </c>
       <c r="H29">
-        <v>16465</v>
+        <v>8553.5840000000007</v>
       </c>
       <c r="I29">
-        <v>1092</v>
+        <v>362.45800000000003</v>
       </c>
       <c r="J29">
-        <v>2282</v>
+        <v>2610.683</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3010,81 +3130,81 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>-32.075000000000003</v>
       </c>
       <c r="N29">
-        <v>1715</v>
+        <v>1003.472</v>
       </c>
       <c r="O29">
-        <v>5868</v>
+        <v>5477.7579999999998</v>
       </c>
       <c r="P29">
-        <v>2731</v>
+        <v>2610.683</v>
       </c>
       <c r="Q29">
-        <v>-24</v>
+        <v>-6.048</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>10597</v>
+        <v>3075.826</v>
       </c>
       <c r="U29">
-        <v>636</v>
+        <v>19.271000000000001</v>
       </c>
       <c r="V29">
-        <v>454</v>
+        <v>190.613</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>7</v>
+        <v>221.20599999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>-23</v>
+        <v>101.92700000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>665</v>
+        <v>204.72800000000001</v>
       </c>
       <c r="D30">
-        <v>1767</v>
+        <v>503.76299999999998</v>
       </c>
       <c r="E30">
-        <v>644</v>
+        <v>283.24900000000002</v>
       </c>
       <c r="F30">
-        <v>887</v>
+        <v>391.40499999999997</v>
       </c>
       <c r="G30">
-        <v>3007</v>
+        <v>765.05499999999995</v>
       </c>
       <c r="H30">
-        <v>17003</v>
+        <v>8616.9809999999998</v>
       </c>
       <c r="I30">
-        <v>1262</v>
+        <v>378.416</v>
       </c>
       <c r="J30">
-        <v>2283</v>
+        <v>2755.491</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2128</v>
+        <v>994.16899999999998</v>
       </c>
       <c r="O30">
-        <v>5724</v>
+        <v>5562.317</v>
       </c>
       <c r="P30">
-        <v>2732</v>
+        <v>2755.491</v>
       </c>
       <c r="Q30">
-        <v>260</v>
+        <v>-7.1</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>3836</v>
+        <v>1702</v>
       </c>
       <c r="T30">
-        <v>11279</v>
+        <v>3054.6640000000002</v>
       </c>
       <c r="U30">
-        <v>896</v>
+        <v>12.170999999999999</v>
       </c>
       <c r="V30">
-        <v>798</v>
+        <v>237.34200000000001</v>
       </c>
       <c r="W30">
-        <v>-7</v>
+        <v>-16.768999999999998</v>
       </c>
       <c r="X30">
-        <v>-8</v>
+        <v>133.40100000000001</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>665</v>
+        <v>204.72800000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>178</v>
+        <v>127.959</v>
       </c>
       <c r="D31">
-        <v>2341</v>
+        <v>542.04300000000001</v>
       </c>
       <c r="E31">
-        <v>826</v>
+        <v>295.50700000000001</v>
       </c>
       <c r="F31">
-        <v>998</v>
+        <v>411.34199999999998</v>
       </c>
       <c r="G31">
-        <v>2824</v>
+        <v>688.63699999999994</v>
       </c>
       <c r="H31">
-        <v>17323</v>
+        <v>8745.9670000000006</v>
       </c>
       <c r="I31">
-        <v>1266</v>
+        <v>335.613</v>
       </c>
       <c r="J31">
-        <v>2284</v>
+        <v>2803.558</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,78 +3299,78 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>2250</v>
+        <v>1023.351</v>
       </c>
       <c r="O31">
-        <v>5921</v>
+        <v>5682.3630000000003</v>
       </c>
       <c r="P31">
-        <v>2733</v>
+        <v>2803.558</v>
       </c>
       <c r="Q31">
-        <v>105</v>
+        <v>5.149</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>11402</v>
+        <v>3063.6039999999998</v>
       </c>
       <c r="U31">
-        <v>1001</v>
+        <v>17.32</v>
       </c>
       <c r="V31">
-        <v>555</v>
+        <v>177.68199999999999</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>-5.1999999999999998E-2</v>
       </c>
       <c r="X31">
-        <v>-45</v>
+        <v>5.0069999999999997</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>178</v>
+        <v>127.959</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>66</v>
+        <v>156.69399999999999</v>
       </c>
       <c r="D32">
-        <v>2382</v>
+        <v>635.12300000000005</v>
       </c>
       <c r="E32">
-        <v>853</v>
+        <v>378.08</v>
       </c>
       <c r="F32">
-        <v>1043</v>
+        <v>492.13799999999998</v>
       </c>
       <c r="G32">
-        <v>2459</v>
+        <v>858.01</v>
       </c>
       <c r="H32">
-        <v>17449</v>
+        <v>9164.9369999999999</v>
       </c>
       <c r="I32">
-        <v>1513</v>
+        <v>417.41399999999999</v>
       </c>
       <c r="J32">
-        <v>2285</v>
+        <v>2642.4430000000002</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3259,81 +3379,81 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>-186.99799999999999</v>
       </c>
       <c r="N32">
-        <v>2262</v>
+        <v>1339.299</v>
       </c>
       <c r="O32">
-        <v>5965</v>
+        <v>5987.78</v>
       </c>
       <c r="P32">
-        <v>2285</v>
+        <v>2642.4430000000002</v>
       </c>
       <c r="Q32">
-        <v>-209</v>
+        <v>25.962</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>11484</v>
+        <v>3177.1570000000002</v>
       </c>
       <c r="U32">
-        <v>792</v>
+        <v>43.281999999999996</v>
       </c>
       <c r="V32">
-        <v>899</v>
+        <v>333.05</v>
       </c>
       <c r="W32">
-        <v>-27</v>
+        <v>-16.841000000000001</v>
       </c>
       <c r="X32">
-        <v>-489</v>
+        <v>6.8529999999999998</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>66</v>
+        <v>156.69399999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>411</v>
+        <v>-5.2350000000000003</v>
       </c>
       <c r="D33">
-        <v>2458</v>
+        <v>600.41300000000001</v>
       </c>
       <c r="E33">
-        <v>876</v>
+        <v>294.89100000000002</v>
       </c>
       <c r="F33">
-        <v>1236</v>
+        <v>447.13</v>
       </c>
       <c r="G33">
-        <v>2660</v>
+        <v>685.39800000000002</v>
       </c>
       <c r="H33">
-        <v>18024</v>
+        <v>9066.5810000000001</v>
       </c>
       <c r="I33">
-        <v>1542</v>
+        <v>399.459</v>
       </c>
       <c r="J33">
-        <v>2286</v>
+        <v>2823.3710000000001</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2225</v>
+        <v>814.05</v>
       </c>
       <c r="O33">
-        <v>6130</v>
+        <v>5497.8739999999998</v>
       </c>
       <c r="P33">
-        <v>2286</v>
+        <v>2823.3710000000001</v>
       </c>
       <c r="Q33">
-        <v>127</v>
+        <v>23.535</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>11894</v>
+        <v>3568.7069999999999</v>
       </c>
       <c r="U33">
-        <v>919</v>
+        <v>66.816999999999993</v>
       </c>
       <c r="V33">
-        <v>874</v>
+        <v>305.77199999999999</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="X33">
-        <v>6</v>
+        <v>111.001</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>411</v>
+        <v>-5.2350000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>323</v>
+        <v>-69.397999999999996</v>
       </c>
       <c r="D34">
-        <v>2204</v>
+        <v>450.00200000000001</v>
       </c>
       <c r="E34">
-        <v>694</v>
+        <v>206.79400000000001</v>
       </c>
       <c r="F34">
-        <v>1039</v>
+        <v>289.983</v>
       </c>
       <c r="G34">
-        <v>2580</v>
+        <v>486.911</v>
       </c>
       <c r="H34">
-        <v>17903</v>
+        <v>9161.7849999999999</v>
       </c>
       <c r="I34">
-        <v>1610</v>
+        <v>356.97199999999998</v>
       </c>
       <c r="J34">
-        <v>2284</v>
+        <v>2899.241</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1818</v>
+        <v>694.99699999999996</v>
       </c>
       <c r="O34">
-        <v>5792</v>
+        <v>5482.1719999999996</v>
       </c>
       <c r="P34">
-        <v>2284</v>
+        <v>2899.241</v>
       </c>
       <c r="Q34">
-        <v>-94</v>
+        <v>-18.48</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>3177</v>
+        <v>1824</v>
       </c>
       <c r="T34">
-        <v>12111</v>
+        <v>3679.6129999999998</v>
       </c>
       <c r="U34">
-        <v>825</v>
+        <v>48.337000000000003</v>
       </c>
       <c r="V34">
-        <v>914</v>
+        <v>217.35900000000001</v>
       </c>
       <c r="W34">
-        <v>-28</v>
+        <v>-19.021000000000001</v>
       </c>
       <c r="X34">
-        <v>-175</v>
+        <v>30.852</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>323</v>
+        <v>-69.397999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>350</v>
+        <v>-14.606</v>
       </c>
       <c r="D35">
-        <v>2244</v>
+        <v>367.851</v>
       </c>
       <c r="E35">
-        <v>870</v>
+        <v>163.679</v>
       </c>
       <c r="F35">
-        <v>998</v>
+        <v>228.55099999999999</v>
       </c>
       <c r="G35">
-        <v>2505</v>
+        <v>448.70800000000003</v>
       </c>
       <c r="H35">
-        <v>18355</v>
+        <v>9051.6450000000004</v>
       </c>
       <c r="I35">
-        <v>1714</v>
+        <v>198.03399999999999</v>
       </c>
       <c r="J35">
-        <v>1836</v>
+        <v>3075.4859999999999</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N35">
-        <v>2532</v>
+        <v>493.39100000000002</v>
       </c>
       <c r="O35">
-        <v>6146</v>
+        <v>5421.5439999999999</v>
       </c>
       <c r="P35">
-        <v>2647</v>
+        <v>3075.4859999999999</v>
       </c>
       <c r="Q35">
-        <v>-314</v>
+        <v>-3.8610000000000002</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>12209</v>
+        <v>3630.1010000000001</v>
       </c>
       <c r="U35">
-        <v>511</v>
+        <v>44.475999999999999</v>
       </c>
       <c r="V35">
-        <v>604</v>
+        <v>24.420999999999999</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-223</v>
+        <v>142.78100000000001</v>
       </c>
       <c r="Y35">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>350</v>
+        <v>-14.606</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>-169</v>
+        <v>-86.995000000000005</v>
       </c>
       <c r="D36">
-        <v>2379</v>
+        <v>370.69200000000001</v>
       </c>
       <c r="E36">
-        <v>783</v>
+        <v>152.23099999999999</v>
       </c>
       <c r="F36">
-        <v>989</v>
+        <v>261.75099999999998</v>
       </c>
       <c r="G36">
-        <v>2175</v>
+        <v>481.85</v>
       </c>
       <c r="H36">
-        <v>18106</v>
+        <v>8872.8420000000006</v>
       </c>
       <c r="I36">
-        <v>1565</v>
+        <v>205.804</v>
       </c>
       <c r="J36">
-        <v>1837</v>
+        <v>2978.819</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>2525</v>
+        <v>579.75900000000001</v>
       </c>
       <c r="O36">
-        <v>6230</v>
+        <v>5331.7560000000003</v>
       </c>
       <c r="P36">
-        <v>2622</v>
+        <v>2978.819</v>
       </c>
       <c r="Q36">
-        <v>207</v>
+        <v>19.847000000000001</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>11876</v>
+        <v>3541.0859999999998</v>
       </c>
       <c r="U36">
-        <v>643</v>
+        <v>64.322999999999993</v>
       </c>
       <c r="V36">
-        <v>789</v>
+        <v>223.90700000000001</v>
       </c>
       <c r="W36">
-        <v>-54</v>
+        <v>-4.6790000000000003</v>
       </c>
       <c r="X36">
-        <v>-257</v>
+        <v>-115.316</v>
       </c>
       <c r="Y36">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>456</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>-169</v>
+        <v>-86.995999999999995</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>231</v>
+        <v>-7.165</v>
       </c>
       <c r="D37">
-        <v>2411</v>
+        <v>409.96899999999999</v>
       </c>
       <c r="E37">
-        <v>848</v>
+        <v>136.893</v>
       </c>
       <c r="F37">
-        <v>973</v>
+        <v>291.19499999999999</v>
       </c>
       <c r="G37">
-        <v>1923</v>
+        <v>422.96199999999999</v>
       </c>
       <c r="H37">
-        <v>18078</v>
+        <v>8681.0679999999993</v>
       </c>
       <c r="I37">
-        <v>1410</v>
+        <v>220.33</v>
       </c>
       <c r="J37">
-        <v>1838</v>
+        <v>2867.2979999999998</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2460</v>
+        <v>517.82000000000005</v>
       </c>
       <c r="O37">
-        <v>6222</v>
+        <v>5146.8360000000002</v>
       </c>
       <c r="P37">
-        <v>2610</v>
+        <v>2867.2979999999998</v>
       </c>
       <c r="Q37">
-        <v>-205</v>
+        <v>-8.7080000000000002</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>11856</v>
+        <v>3534.232</v>
       </c>
       <c r="U37">
-        <v>437</v>
+        <v>55.615000000000002</v>
       </c>
       <c r="V37">
-        <v>894</v>
+        <v>162.49700000000001</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-205</v>
+        <v>-118.021</v>
       </c>
       <c r="Y37">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>231</v>
+        <v>-7.165</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>361</v>
+        <v>56.66</v>
       </c>
       <c r="D38">
-        <v>2641</v>
+        <v>311.142</v>
       </c>
       <c r="E38">
-        <v>1032</v>
+        <v>330.71100000000001</v>
       </c>
       <c r="F38">
-        <v>1070</v>
+        <v>226.11799999999999</v>
       </c>
       <c r="G38">
-        <v>2191</v>
+        <v>616.11800000000005</v>
       </c>
       <c r="H38">
-        <v>19088</v>
+        <v>8867.2649999999994</v>
       </c>
       <c r="I38">
-        <v>1400</v>
+        <v>253.583</v>
       </c>
       <c r="J38">
-        <v>1839</v>
+        <v>2761.011</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2496</v>
+        <v>571.19100000000003</v>
       </c>
       <c r="O38">
-        <v>6952</v>
+        <v>5224.2340000000004</v>
       </c>
       <c r="P38">
-        <v>3167</v>
+        <v>2761.011</v>
       </c>
       <c r="Q38">
-        <v>192</v>
+        <v>-28.247</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>2323</v>
+        <v>1888</v>
       </c>
       <c r="T38">
-        <v>12136</v>
+        <v>3643.0309999999999</v>
       </c>
       <c r="U38">
-        <v>631</v>
+        <v>27.367999999999999</v>
       </c>
       <c r="V38">
-        <v>828</v>
+        <v>132.23400000000001</v>
       </c>
       <c r="W38">
-        <v>-73</v>
+        <v>-4.6909999999999998</v>
       </c>
       <c r="X38">
-        <v>-103</v>
+        <v>-62.487000000000002</v>
       </c>
       <c r="Y38">
-        <v>726</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>56</v>
+        <v>27.2</v>
       </c>
       <c r="AA38">
-        <v>361</v>
+        <v>56.66</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>289</v>
+        <v>245.25399999999999</v>
       </c>
       <c r="D39">
-        <v>2010</v>
+        <v>473.24599999999998</v>
       </c>
       <c r="E39">
-        <v>555</v>
+        <v>260.68799999999999</v>
       </c>
       <c r="F39">
-        <v>731</v>
+        <v>373.32799999999997</v>
       </c>
       <c r="G39">
-        <v>2069</v>
+        <v>587.02599999999995</v>
       </c>
       <c r="H39">
-        <v>19051</v>
+        <v>8972.6550000000007</v>
       </c>
       <c r="I39">
-        <v>1071</v>
+        <v>259.80599999999998</v>
       </c>
       <c r="J39">
-        <v>2140</v>
+        <v>2647.6039999999998</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-450</v>
+        <v>-206.26400000000001</v>
       </c>
       <c r="N39">
-        <v>2080</v>
+        <v>521.68700000000001</v>
       </c>
       <c r="O39">
-        <v>6840</v>
+        <v>5089.027</v>
       </c>
       <c r="P39">
-        <v>2913</v>
+        <v>2647.6039999999998</v>
       </c>
       <c r="Q39">
-        <v>153</v>
+        <v>7.1719999999999997</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>12211</v>
+        <v>3883.6280000000002</v>
       </c>
       <c r="U39">
-        <v>784</v>
+        <v>34.54</v>
       </c>
       <c r="V39">
-        <v>825</v>
+        <v>299.363</v>
       </c>
       <c r="W39">
-        <v>-73</v>
+        <v>-6.5000000000000002E-2</v>
       </c>
       <c r="X39">
-        <v>9</v>
+        <v>-125.648</v>
       </c>
       <c r="Y39">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>289</v>
+        <v>245.25399999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-439</v>
+        <v>167.57599999999999</v>
       </c>
       <c r="D40">
-        <v>1143</v>
+        <v>424.17099999999999</v>
       </c>
       <c r="E40">
-        <v>566</v>
+        <v>212.01400000000001</v>
       </c>
       <c r="F40">
-        <v>360</v>
+        <v>304.80799999999999</v>
       </c>
       <c r="G40">
-        <v>1195</v>
+        <v>712.57799999999997</v>
       </c>
       <c r="H40">
-        <v>17906</v>
+        <v>9112.3220000000001</v>
       </c>
       <c r="I40">
-        <v>847</v>
+        <v>342.25599999999997</v>
       </c>
       <c r="J40">
-        <v>2054</v>
+        <v>2534.0160000000001</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1584</v>
+        <v>587.28499999999997</v>
       </c>
       <c r="O40">
-        <v>6166</v>
+        <v>5054.1890000000003</v>
       </c>
       <c r="P40">
-        <v>2427</v>
+        <v>2534.0160000000001</v>
       </c>
       <c r="Q40">
-        <v>-609</v>
+        <v>163.14599999999999</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>11740</v>
+        <v>4058.1329999999998</v>
       </c>
       <c r="U40">
-        <v>180</v>
+        <v>197.68600000000001</v>
       </c>
       <c r="V40">
-        <v>329</v>
+        <v>393.851</v>
       </c>
       <c r="W40">
-        <v>-91</v>
+        <v>-4.718</v>
       </c>
       <c r="X40">
-        <v>-513</v>
+        <v>-158.875</v>
       </c>
       <c r="Y40">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>-0.108</v>
       </c>
       <c r="AA40">
-        <v>-439</v>
+        <v>167.57599999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>-20</v>
+        <v>112.035</v>
       </c>
       <c r="D41">
-        <v>1857</v>
+        <v>437.20100000000002</v>
       </c>
       <c r="E41">
-        <v>662</v>
+        <v>211.066</v>
       </c>
       <c r="F41">
-        <v>633</v>
+        <v>297.779</v>
       </c>
       <c r="G41">
-        <v>2420</v>
+        <v>689.476</v>
       </c>
       <c r="H41">
-        <v>18977</v>
+        <v>9297.1200000000008</v>
       </c>
       <c r="I41">
-        <v>1003</v>
+        <v>363.79399999999998</v>
       </c>
       <c r="J41">
-        <v>3148</v>
+        <v>2539.4160000000002</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1688</v>
+        <v>596.221</v>
       </c>
       <c r="O41">
-        <v>7323</v>
+        <v>5139.2820000000002</v>
       </c>
       <c r="P41">
-        <v>3500</v>
+        <v>2541.123</v>
       </c>
       <c r="Q41">
-        <v>1142</v>
+        <v>-119.521</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>11654</v>
+        <v>4157.8379999999997</v>
       </c>
       <c r="U41">
-        <v>1325</v>
+        <v>78.165000000000006</v>
       </c>
       <c r="V41">
-        <v>392</v>
+        <v>208.50800000000001</v>
       </c>
       <c r="W41">
-        <v>-91</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>986</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="Y41">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-15.542999999999999</v>
       </c>
       <c r="AA41">
-        <v>-20</v>
+        <v>112.035</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>80.343000000000004</v>
+      </c>
+      <c r="D42">
+        <v>388.45299999999997</v>
+      </c>
+      <c r="E42">
+        <v>237.511</v>
+      </c>
+      <c r="F42">
+        <v>274.322</v>
+      </c>
+      <c r="G42">
+        <v>1197.183</v>
+      </c>
+      <c r="H42">
+        <v>9679.1020000000008</v>
+      </c>
+      <c r="I42">
+        <v>414.25</v>
+      </c>
+      <c r="J42">
+        <v>2601.67</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>769.22</v>
+      </c>
+      <c r="O42">
+        <v>5453.0770000000002</v>
+      </c>
+      <c r="P42">
+        <v>2601.67</v>
+      </c>
+      <c r="Q42">
+        <v>32.994999999999997</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>2248</v>
+      </c>
+      <c r="T42">
+        <v>4226.0249999999996</v>
+      </c>
+      <c r="U42">
+        <v>111.16</v>
+      </c>
+      <c r="V42">
+        <v>383.30099999999999</v>
+      </c>
+      <c r="W42">
+        <v>-4.7050000000000001</v>
+      </c>
+      <c r="X42">
+        <v>40.347999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-57.213000000000001</v>
+      </c>
+      <c r="AA42">
+        <v>80.343000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>348.59399999999999</v>
+      </c>
+      <c r="D43">
+        <v>474.76</v>
+      </c>
+      <c r="E43">
+        <v>276.33800000000002</v>
+      </c>
+      <c r="F43">
+        <v>342.34399999999999</v>
+      </c>
+      <c r="G43">
+        <v>1235.5930000000001</v>
+      </c>
+      <c r="H43">
+        <v>10025.986000000001</v>
+      </c>
+      <c r="I43">
+        <v>369.33300000000003</v>
+      </c>
+      <c r="J43">
+        <v>2562.6880000000001</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-105.83</v>
+      </c>
+      <c r="N43">
+        <v>695.86400000000003</v>
+      </c>
+      <c r="O43">
+        <v>5472.4189999999999</v>
+      </c>
+      <c r="P43">
+        <v>2564.2759999999998</v>
+      </c>
+      <c r="Q43">
+        <v>409.49099999999999</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>4553.567</v>
+      </c>
+      <c r="U43">
+        <v>520.65099999999995</v>
+      </c>
+      <c r="V43">
+        <v>143.214</v>
+      </c>
+      <c r="W43">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="X43">
+        <v>-67.891000000000005</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-37.048000000000002</v>
+      </c>
+      <c r="AA43">
+        <v>348.59399999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>245.577</v>
+      </c>
+      <c r="D44">
+        <v>554.601</v>
+      </c>
+      <c r="E44">
+        <v>266.476</v>
+      </c>
+      <c r="F44">
+        <v>425.72399999999999</v>
+      </c>
+      <c r="G44">
+        <v>1071.107</v>
+      </c>
+      <c r="H44">
+        <v>10353.088</v>
+      </c>
+      <c r="I44">
+        <v>517.39599999999996</v>
+      </c>
+      <c r="J44">
+        <v>2570.9780000000001</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>755.64099999999996</v>
+      </c>
+      <c r="O44">
+        <v>5537.1239999999998</v>
+      </c>
+      <c r="P44">
+        <v>2570.9780000000001</v>
+      </c>
+      <c r="Q44">
+        <v>-168.23</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>4815.9639999999999</v>
+      </c>
+      <c r="U44">
+        <v>352.42099999999999</v>
+      </c>
+      <c r="V44">
+        <v>421.24</v>
+      </c>
+      <c r="W44">
+        <v>-4.7389999999999999</v>
+      </c>
+      <c r="X44">
+        <v>-13.45</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-45.808999999999997</v>
+      </c>
+      <c r="AA44">
+        <v>245.577</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>351.464</v>
+      </c>
+      <c r="D45">
+        <v>577.726</v>
+      </c>
+      <c r="E45">
+        <v>272.154</v>
+      </c>
+      <c r="F45">
+        <v>425.60700000000003</v>
+      </c>
+      <c r="G45">
+        <v>1103.643</v>
+      </c>
+      <c r="H45">
+        <v>10985.043</v>
+      </c>
+      <c r="I45">
+        <v>627.30399999999997</v>
+      </c>
+      <c r="J45">
+        <v>2600.0349999999999</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>776.11699999999996</v>
+      </c>
+      <c r="O45">
+        <v>5788.3760000000002</v>
+      </c>
+      <c r="P45">
+        <v>2600.0349999999999</v>
+      </c>
+      <c r="Q45">
+        <v>-141.85599999999999</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>5196.6670000000004</v>
+      </c>
+      <c r="U45">
+        <v>210.565</v>
+      </c>
+      <c r="V45">
+        <v>465.584</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>5.5609999999999999</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-6.7629999999999999</v>
+      </c>
+      <c r="AA45">
+        <v>351.464</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>-111.146</v>
+      </c>
+      <c r="D46">
+        <v>702.95399999999995</v>
+      </c>
+      <c r="E46">
+        <v>275.99099999999999</v>
+      </c>
+      <c r="F46">
+        <v>518.43399999999997</v>
+      </c>
+      <c r="G46">
+        <v>1402.2919999999999</v>
+      </c>
+      <c r="H46">
+        <v>11447.156000000001</v>
+      </c>
+      <c r="I46">
+        <v>707.01099999999997</v>
+      </c>
+      <c r="J46">
+        <v>2528.9050000000002</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1069.511</v>
+      </c>
+      <c r="O46">
+        <v>5796.018</v>
+      </c>
+      <c r="P46">
+        <v>2544.5590000000002</v>
+      </c>
+      <c r="Q46">
+        <v>326.91899999999998</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>3304</v>
+      </c>
+      <c r="T46">
+        <v>5651.1379999999999</v>
+      </c>
+      <c r="U46">
+        <v>537.48400000000004</v>
+      </c>
+      <c r="V46">
+        <v>499.67599999999999</v>
+      </c>
+      <c r="W46">
+        <v>-4.7439999999999998</v>
+      </c>
+      <c r="X46">
+        <v>533.17700000000002</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>-111.146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>214.619</v>
+      </c>
+      <c r="D47">
+        <v>725.505</v>
+      </c>
+      <c r="E47">
+        <v>297.7</v>
+      </c>
+      <c r="F47">
+        <v>541.88699999999994</v>
+      </c>
+      <c r="G47">
+        <v>1367.1089999999999</v>
+      </c>
+      <c r="H47">
+        <v>12025.558999999999</v>
+      </c>
+      <c r="I47">
+        <v>817.47699999999998</v>
+      </c>
+      <c r="J47">
+        <v>2620.6149999999998</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-50.261000000000003</v>
+      </c>
+      <c r="N47">
+        <v>1110.1220000000001</v>
+      </c>
+      <c r="O47">
+        <v>6192.8879999999999</v>
+      </c>
+      <c r="P47">
+        <v>2632.6489999999999</v>
+      </c>
+      <c r="Q47">
+        <v>-220.566</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>5832.6710000000003</v>
+      </c>
+      <c r="U47">
+        <v>316.91800000000001</v>
+      </c>
+      <c r="V47">
+        <v>426.08600000000001</v>
+      </c>
+      <c r="W47">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="X47">
+        <v>33.014000000000003</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>214.619</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>-70.391999999999996</v>
+      </c>
+      <c r="D48">
+        <v>637.91700000000003</v>
+      </c>
+      <c r="E48">
+        <v>250.19200000000001</v>
+      </c>
+      <c r="F48">
+        <v>442.07900000000001</v>
+      </c>
+      <c r="G48">
+        <v>1284.0329999999999</v>
+      </c>
+      <c r="H48">
+        <v>12569.734</v>
+      </c>
+      <c r="I48">
+        <v>800.95799999999997</v>
+      </c>
+      <c r="J48">
+        <v>3285.4969999999998</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1128.991</v>
+      </c>
+      <c r="O48">
+        <v>6812.7579999999998</v>
+      </c>
+      <c r="P48">
+        <v>3285.4969999999998</v>
+      </c>
+      <c r="Q48">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>5756.9759999999997</v>
+      </c>
+      <c r="U48">
+        <v>317.76900000000001</v>
+      </c>
+      <c r="V48">
+        <v>499.32400000000001</v>
+      </c>
+      <c r="W48">
+        <v>-4.9850000000000003</v>
+      </c>
+      <c r="X48">
+        <v>643.92700000000002</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>-70.391999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>19.224</v>
+      </c>
+      <c r="D49">
+        <v>719.79200000000003</v>
+      </c>
+      <c r="E49">
+        <v>298.32</v>
+      </c>
+      <c r="F49">
+        <v>490.28</v>
+      </c>
+      <c r="G49">
+        <v>1579.884</v>
+      </c>
+      <c r="H49">
+        <v>12814.001</v>
+      </c>
+      <c r="I49">
+        <v>791.13599999999997</v>
+      </c>
+      <c r="J49">
+        <v>3562.07</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>991.84799999999996</v>
+      </c>
+      <c r="O49">
+        <v>7013.8919999999998</v>
+      </c>
+      <c r="P49">
+        <v>3562.07</v>
+      </c>
+      <c r="Q49">
+        <v>16.117000000000001</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>5800.1090000000004</v>
+      </c>
+      <c r="U49">
+        <v>333.88600000000002</v>
+      </c>
+      <c r="V49">
+        <v>432.06</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>278.08</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>19.224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>28.834</v>
+      </c>
+      <c r="D50">
+        <v>602.25599999999997</v>
+      </c>
+      <c r="E50">
+        <v>316.85399999999998</v>
+      </c>
+      <c r="F50">
+        <v>346.61799999999999</v>
+      </c>
+      <c r="G50">
+        <v>1050.355</v>
+      </c>
+      <c r="H50">
+        <v>13069.03</v>
+      </c>
+      <c r="I50">
+        <v>808.077</v>
+      </c>
+      <c r="J50">
+        <v>3730.9169999999999</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1034.79</v>
+      </c>
+      <c r="O50">
+        <v>7201.7219999999998</v>
+      </c>
+      <c r="P50">
+        <v>3730.9169999999999</v>
+      </c>
+      <c r="Q50">
+        <v>-104.49</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>3667</v>
+      </c>
+      <c r="T50">
+        <v>5867.308</v>
+      </c>
+      <c r="U50">
+        <v>229.39599999999999</v>
+      </c>
+      <c r="V50">
+        <v>480.10700000000003</v>
+      </c>
+      <c r="W50">
+        <v>-4.9930000000000003</v>
+      </c>
+      <c r="X50">
+        <v>155.72399999999999</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>28.834</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>101</v>
+      </c>
+      <c r="D51">
+        <v>778</v>
+      </c>
+      <c r="E51">
+        <v>355.09300000000002</v>
+      </c>
+      <c r="F51">
+        <v>520</v>
+      </c>
+      <c r="G51">
+        <v>1196.414</v>
+      </c>
+      <c r="H51">
+        <v>13761.297</v>
+      </c>
+      <c r="I51">
+        <v>814.56299999999999</v>
+      </c>
+      <c r="J51">
+        <v>3023.0639999999999</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-1012</v>
+      </c>
+      <c r="N51">
+        <v>971.86599999999999</v>
+      </c>
+      <c r="O51">
+        <v>6495.2259999999997</v>
+      </c>
+      <c r="P51">
+        <v>3023.0639999999999</v>
+      </c>
+      <c r="Q51">
+        <v>201</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>7266.0709999999999</v>
+      </c>
+      <c r="U51">
+        <v>430.298</v>
+      </c>
+      <c r="V51">
+        <v>360</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>548</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>337</v>
+      </c>
+      <c r="D52">
+        <v>793</v>
+      </c>
+      <c r="E52">
+        <v>345.81200000000001</v>
+      </c>
+      <c r="F52">
+        <v>550</v>
+      </c>
+      <c r="G52">
+        <v>1465.192</v>
+      </c>
+      <c r="H52">
+        <v>14162.587</v>
+      </c>
+      <c r="I52">
+        <v>864.98299999999995</v>
+      </c>
+      <c r="J52">
+        <v>2823.4279999999999</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1012.128</v>
+      </c>
+      <c r="O52">
+        <v>6514.43</v>
+      </c>
+      <c r="P52">
+        <v>2823.4279999999999</v>
+      </c>
+      <c r="Q52">
+        <v>266</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>7648.1570000000002</v>
+      </c>
+      <c r="U52">
+        <v>695.625</v>
+      </c>
+      <c r="V52">
+        <v>577</v>
+      </c>
+      <c r="W52">
+        <v>-6</v>
+      </c>
+      <c r="X52">
+        <v>-204</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>91</v>
+      </c>
+      <c r="D53">
+        <v>904</v>
+      </c>
+      <c r="E53">
+        <v>408.24</v>
+      </c>
+      <c r="F53">
+        <v>617</v>
+      </c>
+      <c r="G53">
+        <v>1533.261</v>
+      </c>
+      <c r="H53">
+        <v>14544.944</v>
+      </c>
+      <c r="I53">
+        <v>1035.884</v>
+      </c>
+      <c r="J53">
+        <v>2854.3389999999999</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1214.8109999999999</v>
+      </c>
+      <c r="O53">
+        <v>6782.1930000000002</v>
+      </c>
+      <c r="P53">
+        <v>2854.3389999999999</v>
+      </c>
+      <c r="Q53">
+        <v>48</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>7762.7510000000002</v>
+      </c>
+      <c r="U53">
+        <v>744.12</v>
+      </c>
+      <c r="V53">
+        <v>668</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>28</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>-1367</v>
+      </c>
+      <c r="D54">
+        <v>942</v>
+      </c>
+      <c r="E54">
+        <v>431</v>
+      </c>
+      <c r="F54">
+        <v>577</v>
+      </c>
+      <c r="G54">
+        <v>1730</v>
+      </c>
+      <c r="H54">
+        <v>12294</v>
+      </c>
+      <c r="I54">
+        <v>1027</v>
+      </c>
+      <c r="J54">
+        <v>2663</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1250</v>
+      </c>
+      <c r="O54">
+        <v>5679</v>
+      </c>
+      <c r="P54">
+        <v>2663</v>
+      </c>
+      <c r="Q54">
+        <v>-351</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>4203</v>
+      </c>
+      <c r="T54">
+        <v>6615</v>
+      </c>
+      <c r="U54">
+        <v>393</v>
+      </c>
+      <c r="V54">
+        <v>541</v>
+      </c>
+      <c r="W54">
+        <v>-5</v>
+      </c>
+      <c r="X54">
+        <v>-214</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>25</v>
+      </c>
+      <c r="AA54">
+        <v>-1367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>123</v>
+      </c>
+      <c r="D55">
+        <v>1035</v>
+      </c>
+      <c r="E55">
+        <v>437</v>
+      </c>
+      <c r="F55">
+        <v>679</v>
+      </c>
+      <c r="G55">
+        <v>1542</v>
+      </c>
+      <c r="H55">
+        <v>12465</v>
+      </c>
+      <c r="I55">
+        <v>963</v>
+      </c>
+      <c r="J55">
+        <v>2710</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-100</v>
+      </c>
+      <c r="N55">
+        <v>1238</v>
+      </c>
+      <c r="O55">
+        <v>5741</v>
+      </c>
+      <c r="P55">
+        <v>2710</v>
+      </c>
+      <c r="Q55">
+        <v>-136</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>4350</v>
+      </c>
+      <c r="T55">
+        <v>6724</v>
+      </c>
+      <c r="U55">
+        <v>257</v>
+      </c>
+      <c r="V55">
+        <v>466</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>24</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1138</v>
+      </c>
+      <c r="E56">
+        <v>457</v>
+      </c>
+      <c r="F56">
+        <v>713</v>
+      </c>
+      <c r="G56">
+        <v>1380</v>
+      </c>
+      <c r="H56">
+        <v>12710</v>
+      </c>
+      <c r="I56">
+        <v>1126</v>
+      </c>
+      <c r="J56">
+        <v>2659</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1465</v>
+      </c>
+      <c r="O56">
+        <v>5960</v>
+      </c>
+      <c r="P56">
+        <v>2659</v>
+      </c>
+      <c r="Q56">
+        <v>188</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>6750</v>
+      </c>
+      <c r="U56">
+        <v>445</v>
+      </c>
+      <c r="V56">
+        <v>717</v>
+      </c>
+      <c r="W56">
+        <v>-6</v>
+      </c>
+      <c r="X56">
+        <v>-52</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>375</v>
+      </c>
+      <c r="D57">
+        <v>1167</v>
+      </c>
+      <c r="E57">
+        <v>483</v>
+      </c>
+      <c r="F57">
+        <v>744</v>
+      </c>
+      <c r="G57">
+        <v>1491</v>
+      </c>
+      <c r="H57">
+        <v>13272</v>
+      </c>
+      <c r="I57">
+        <v>1308</v>
+      </c>
+      <c r="J57">
+        <v>2662</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1439</v>
+      </c>
+      <c r="O57">
+        <v>6119</v>
+      </c>
+      <c r="P57">
+        <v>2662</v>
+      </c>
+      <c r="Q57">
+        <v>105</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>7153</v>
+      </c>
+      <c r="U57">
+        <v>550</v>
+      </c>
+      <c r="V57">
+        <v>615</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>15</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>431</v>
+      </c>
+      <c r="D58">
+        <v>985</v>
+      </c>
+      <c r="E58">
+        <v>436</v>
+      </c>
+      <c r="F58">
+        <v>565</v>
+      </c>
+      <c r="G58">
+        <v>2359</v>
+      </c>
+      <c r="H58">
+        <v>14909</v>
+      </c>
+      <c r="I58">
+        <v>1297</v>
+      </c>
+      <c r="J58">
+        <v>2648</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1419</v>
+      </c>
+      <c r="O58">
+        <v>6320</v>
+      </c>
+      <c r="P58">
+        <v>2651</v>
+      </c>
+      <c r="Q58">
+        <v>475</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>4075</v>
+      </c>
+      <c r="T58">
+        <v>8589</v>
+      </c>
+      <c r="U58">
+        <v>1025</v>
+      </c>
+      <c r="V58">
+        <v>568</v>
+      </c>
+      <c r="W58">
+        <v>-6</v>
+      </c>
+      <c r="X58">
+        <v>978</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>-78</v>
+      </c>
+      <c r="D59">
+        <v>620</v>
+      </c>
+      <c r="E59">
+        <v>341</v>
+      </c>
+      <c r="F59">
+        <v>287</v>
+      </c>
+      <c r="G59">
+        <v>1694</v>
+      </c>
+      <c r="H59">
+        <v>14347</v>
+      </c>
+      <c r="I59">
+        <v>872</v>
+      </c>
+      <c r="J59">
+        <v>2668</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1162</v>
+      </c>
+      <c r="O59">
+        <v>5848</v>
+      </c>
+      <c r="P59">
+        <v>2681</v>
+      </c>
+      <c r="Q59">
+        <v>-642</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>8499</v>
+      </c>
+      <c r="U59">
+        <v>383</v>
+      </c>
+      <c r="V59">
+        <v>104</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-29</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>-218</v>
+      </c>
+      <c r="D60">
+        <v>832</v>
+      </c>
+      <c r="E60">
+        <v>388</v>
+      </c>
+      <c r="F60">
+        <v>393</v>
+      </c>
+      <c r="G60">
+        <v>1305</v>
+      </c>
+      <c r="H60">
+        <v>14002</v>
+      </c>
+      <c r="I60">
+        <v>818</v>
+      </c>
+      <c r="J60">
+        <v>2672</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1033</v>
+      </c>
+      <c r="O60">
+        <v>5694</v>
+      </c>
+      <c r="P60">
+        <v>2672</v>
+      </c>
+      <c r="Q60">
+        <v>-164</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>8308</v>
+      </c>
+      <c r="U60">
+        <v>219</v>
+      </c>
+      <c r="V60">
+        <v>328</v>
+      </c>
+      <c r="W60">
+        <v>-6</v>
+      </c>
+      <c r="X60">
+        <v>-3</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>-218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>646</v>
+      </c>
+      <c r="D61">
+        <v>883</v>
+      </c>
+      <c r="E61">
+        <v>413</v>
+      </c>
+      <c r="F61">
+        <v>306</v>
+      </c>
+      <c r="G61">
+        <v>2403</v>
+      </c>
+      <c r="H61">
+        <v>14965</v>
+      </c>
+      <c r="I61">
+        <v>838</v>
+      </c>
+      <c r="J61">
+        <v>2675</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1147</v>
+      </c>
+      <c r="O61">
+        <v>5984</v>
+      </c>
+      <c r="P61">
+        <v>2677</v>
+      </c>
+      <c r="Q61">
+        <v>362</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>8981</v>
+      </c>
+      <c r="U61">
+        <v>581</v>
+      </c>
+      <c r="V61">
+        <v>357</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>7</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>-623</v>
+      </c>
+      <c r="D62">
+        <v>807</v>
+      </c>
+      <c r="E62">
+        <v>384</v>
+      </c>
+      <c r="F62">
+        <v>220</v>
+      </c>
+      <c r="G62">
+        <v>3194</v>
+      </c>
+      <c r="H62">
+        <v>15154</v>
+      </c>
+      <c r="I62">
+        <v>867</v>
+      </c>
+      <c r="J62">
+        <v>3207</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1462</v>
+      </c>
+      <c r="O62">
+        <v>6779</v>
+      </c>
+      <c r="P62">
+        <v>3655</v>
+      </c>
+      <c r="Q62">
+        <v>810</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>3732</v>
+      </c>
+      <c r="T62">
+        <v>8375</v>
+      </c>
+      <c r="U62">
+        <v>1391</v>
+      </c>
+      <c r="V62">
+        <v>459</v>
+      </c>
+      <c r="W62">
+        <v>-6</v>
+      </c>
+      <c r="X62">
+        <v>983</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>530</v>
+      </c>
+      <c r="AA62">
+        <v>-623</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>-267</v>
+      </c>
+      <c r="D63">
+        <v>632</v>
+      </c>
+      <c r="E63">
+        <v>351</v>
+      </c>
+      <c r="F63">
+        <v>204</v>
+      </c>
+      <c r="G63">
+        <v>4081</v>
+      </c>
+      <c r="H63">
+        <v>16171</v>
+      </c>
+      <c r="I63">
+        <v>724</v>
+      </c>
+      <c r="J63">
+        <v>2726</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1783</v>
+      </c>
+      <c r="O63">
+        <v>6476</v>
+      </c>
+      <c r="P63">
+        <v>3662</v>
+      </c>
+      <c r="Q63">
+        <v>221</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>9695</v>
+      </c>
+      <c r="U63">
+        <v>1612</v>
+      </c>
+      <c r="V63">
+        <v>110</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>1574</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-914</v>
+      </c>
+      <c r="AA63">
+        <v>-267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>-268</v>
+      </c>
+      <c r="D64">
+        <v>1008</v>
+      </c>
+      <c r="E64">
+        <v>434</v>
+      </c>
+      <c r="F64">
+        <v>421</v>
+      </c>
+      <c r="G64">
+        <v>4699</v>
+      </c>
+      <c r="H64">
+        <v>16808</v>
+      </c>
+      <c r="I64">
+        <v>732</v>
+      </c>
+      <c r="J64">
+        <v>2734</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1831</v>
+      </c>
+      <c r="O64">
+        <v>6422</v>
+      </c>
+      <c r="P64">
+        <v>3673</v>
+      </c>
+      <c r="Q64">
+        <v>213</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>10386</v>
+      </c>
+      <c r="U64">
+        <v>1825</v>
+      </c>
+      <c r="V64">
+        <v>409</v>
+      </c>
+      <c r="W64">
+        <v>-7</v>
+      </c>
+      <c r="X64">
+        <v>930</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-580</v>
+      </c>
+      <c r="AA64">
+        <v>-268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>22</v>
+      </c>
+      <c r="D65">
+        <v>1087</v>
+      </c>
+      <c r="E65">
+        <v>447</v>
+      </c>
+      <c r="F65">
+        <v>456</v>
+      </c>
+      <c r="G65">
+        <v>3454</v>
+      </c>
+      <c r="H65">
+        <v>16325</v>
+      </c>
+      <c r="I65">
+        <v>766</v>
+      </c>
+      <c r="J65">
+        <v>2734</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1377</v>
+      </c>
+      <c r="O65">
+        <v>5894</v>
+      </c>
+      <c r="P65">
+        <v>3219</v>
+      </c>
+      <c r="Q65">
+        <v>-934</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>10431</v>
+      </c>
+      <c r="U65">
+        <v>891</v>
+      </c>
+      <c r="V65">
+        <v>440</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-449</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-551</v>
+      </c>
+      <c r="AA65">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>-43</v>
+      </c>
+      <c r="D66">
+        <v>782</v>
+      </c>
+      <c r="E66">
+        <v>517</v>
+      </c>
+      <c r="F66">
+        <v>550</v>
+      </c>
+      <c r="G66">
+        <v>3298</v>
+      </c>
+      <c r="H66">
+        <v>16459</v>
+      </c>
+      <c r="I66">
+        <v>853</v>
+      </c>
+      <c r="J66">
+        <v>2728</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1566</v>
+      </c>
+      <c r="O66">
+        <v>6048</v>
+      </c>
+      <c r="P66">
+        <v>3213</v>
+      </c>
+      <c r="Q66">
+        <v>227</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>3604</v>
+      </c>
+      <c r="T66">
+        <v>10411</v>
+      </c>
+      <c r="U66">
+        <v>1118</v>
+      </c>
+      <c r="V66">
+        <v>540</v>
+      </c>
+      <c r="W66">
+        <v>-6</v>
+      </c>
+      <c r="X66">
+        <v>-7</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>707</v>
+      </c>
+      <c r="AA66">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>-42</v>
+      </c>
+      <c r="D67">
+        <v>1125</v>
+      </c>
+      <c r="E67">
+        <v>426</v>
+      </c>
+      <c r="F67">
+        <v>602</v>
+      </c>
+      <c r="G67">
+        <v>2940</v>
+      </c>
+      <c r="H67">
+        <v>15749</v>
+      </c>
+      <c r="I67">
+        <v>797</v>
+      </c>
+      <c r="J67">
+        <v>2729</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-485</v>
+      </c>
+      <c r="N67">
+        <v>952</v>
+      </c>
+      <c r="O67">
+        <v>5401</v>
+      </c>
+      <c r="P67">
+        <v>2729</v>
+      </c>
+      <c r="Q67">
+        <v>-455</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>10348</v>
+      </c>
+      <c r="U67">
+        <v>663</v>
+      </c>
+      <c r="V67">
+        <v>364</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-521</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>143</v>
+      </c>
+      <c r="AA67">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>233</v>
+      </c>
+      <c r="D68">
+        <v>1119</v>
+      </c>
+      <c r="E68">
+        <v>491</v>
+      </c>
+      <c r="F68">
+        <v>556</v>
+      </c>
+      <c r="G68">
+        <v>3064</v>
+      </c>
+      <c r="H68">
+        <v>16271</v>
+      </c>
+      <c r="I68">
+        <v>934</v>
+      </c>
+      <c r="J68">
+        <v>2281</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1558</v>
+      </c>
+      <c r="O68">
+        <v>5669</v>
+      </c>
+      <c r="P68">
+        <v>2730</v>
+      </c>
+      <c r="Q68">
+        <v>-3</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>10602</v>
+      </c>
+      <c r="U68">
+        <v>660</v>
+      </c>
+      <c r="V68">
+        <v>483</v>
+      </c>
+      <c r="W68">
+        <v>-7</v>
+      </c>
+      <c r="X68">
+        <v>-7</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-15</v>
+      </c>
+      <c r="AA68">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>-23</v>
+      </c>
+      <c r="D69">
+        <v>1283</v>
+      </c>
+      <c r="E69">
+        <v>649</v>
+      </c>
+      <c r="F69">
+        <v>636</v>
+      </c>
+      <c r="G69">
+        <v>2901</v>
+      </c>
+      <c r="H69">
+        <v>16465</v>
+      </c>
+      <c r="I69">
+        <v>1092</v>
+      </c>
+      <c r="J69">
+        <v>2282</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1715</v>
+      </c>
+      <c r="O69">
+        <v>5868</v>
+      </c>
+      <c r="P69">
+        <v>2731</v>
+      </c>
+      <c r="Q69">
+        <v>-24</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>10597</v>
+      </c>
+      <c r="U69">
+        <v>636</v>
+      </c>
+      <c r="V69">
+        <v>454</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>7</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>218</v>
+      </c>
+      <c r="AA69">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>665</v>
+      </c>
+      <c r="D70">
+        <v>1767</v>
+      </c>
+      <c r="E70">
+        <v>644</v>
+      </c>
+      <c r="F70">
+        <v>887</v>
+      </c>
+      <c r="G70">
+        <v>3007</v>
+      </c>
+      <c r="H70">
+        <v>17003</v>
+      </c>
+      <c r="I70">
+        <v>1262</v>
+      </c>
+      <c r="J70">
+        <v>2283</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2128</v>
+      </c>
+      <c r="O70">
+        <v>5724</v>
+      </c>
+      <c r="P70">
+        <v>2732</v>
+      </c>
+      <c r="Q70">
+        <v>260</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>3836</v>
+      </c>
+      <c r="T70">
+        <v>11279</v>
+      </c>
+      <c r="U70">
+        <v>896</v>
+      </c>
+      <c r="V70">
+        <v>798</v>
+      </c>
+      <c r="W70">
+        <v>-7</v>
+      </c>
+      <c r="X70">
+        <v>-8</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>217</v>
+      </c>
+      <c r="AA70">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>178</v>
+      </c>
+      <c r="D71">
+        <v>2341</v>
+      </c>
+      <c r="E71">
+        <v>826</v>
+      </c>
+      <c r="F71">
+        <v>998</v>
+      </c>
+      <c r="G71">
+        <v>2824</v>
+      </c>
+      <c r="H71">
+        <v>17323</v>
+      </c>
+      <c r="I71">
+        <v>1266</v>
+      </c>
+      <c r="J71">
+        <v>2284</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>2250</v>
+      </c>
+      <c r="O71">
+        <v>5921</v>
+      </c>
+      <c r="P71">
+        <v>2733</v>
+      </c>
+      <c r="Q71">
+        <v>105</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>11402</v>
+      </c>
+      <c r="U71">
+        <v>1001</v>
+      </c>
+      <c r="V71">
+        <v>555</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-45</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>460</v>
+      </c>
+      <c r="AA71">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>66</v>
+      </c>
+      <c r="D72">
+        <v>2382</v>
+      </c>
+      <c r="E72">
+        <v>853</v>
+      </c>
+      <c r="F72">
+        <v>1043</v>
+      </c>
+      <c r="G72">
+        <v>2459</v>
+      </c>
+      <c r="H72">
+        <v>17449</v>
+      </c>
+      <c r="I72">
+        <v>1513</v>
+      </c>
+      <c r="J72">
+        <v>2285</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2262</v>
+      </c>
+      <c r="O72">
+        <v>5965</v>
+      </c>
+      <c r="P72">
+        <v>2285</v>
+      </c>
+      <c r="Q72">
+        <v>-209</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>11484</v>
+      </c>
+      <c r="U72">
+        <v>792</v>
+      </c>
+      <c r="V72">
+        <v>899</v>
+      </c>
+      <c r="W72">
+        <v>-27</v>
+      </c>
+      <c r="X72">
+        <v>-489</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>109</v>
+      </c>
+      <c r="AA72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>411</v>
+      </c>
+      <c r="D73">
+        <v>2458</v>
+      </c>
+      <c r="E73">
+        <v>876</v>
+      </c>
+      <c r="F73">
+        <v>1236</v>
+      </c>
+      <c r="G73">
+        <v>2660</v>
+      </c>
+      <c r="H73">
+        <v>18024</v>
+      </c>
+      <c r="I73">
+        <v>1542</v>
+      </c>
+      <c r="J73">
+        <v>2286</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2225</v>
+      </c>
+      <c r="O73">
+        <v>6130</v>
+      </c>
+      <c r="P73">
+        <v>2286</v>
+      </c>
+      <c r="Q73">
+        <v>127</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>11894</v>
+      </c>
+      <c r="U73">
+        <v>919</v>
+      </c>
+      <c r="V73">
+        <v>874</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>6</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-47</v>
+      </c>
+      <c r="AA73">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>323</v>
+      </c>
+      <c r="D74">
+        <v>2204</v>
+      </c>
+      <c r="E74">
+        <v>694</v>
+      </c>
+      <c r="F74">
+        <v>1039</v>
+      </c>
+      <c r="G74">
+        <v>2580</v>
+      </c>
+      <c r="H74">
+        <v>17903</v>
+      </c>
+      <c r="I74">
+        <v>1610</v>
+      </c>
+      <c r="J74">
+        <v>2284</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1818</v>
+      </c>
+      <c r="O74">
+        <v>5792</v>
+      </c>
+      <c r="P74">
+        <v>2284</v>
+      </c>
+      <c r="Q74">
+        <v>-94</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>3177</v>
+      </c>
+      <c r="T74">
+        <v>12111</v>
+      </c>
+      <c r="U74">
+        <v>825</v>
+      </c>
+      <c r="V74">
+        <v>914</v>
+      </c>
+      <c r="W74">
+        <v>-28</v>
+      </c>
+      <c r="X74">
+        <v>-175</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>182</v>
+      </c>
+      <c r="AA74">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>350</v>
+      </c>
+      <c r="D75">
+        <v>2244</v>
+      </c>
+      <c r="E75">
+        <v>870</v>
+      </c>
+      <c r="F75">
+        <v>998</v>
+      </c>
+      <c r="G75">
+        <v>2505</v>
+      </c>
+      <c r="H75">
+        <v>18355</v>
+      </c>
+      <c r="I75">
+        <v>1714</v>
+      </c>
+      <c r="J75">
+        <v>1836</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>2532</v>
+      </c>
+      <c r="O75">
+        <v>6146</v>
+      </c>
+      <c r="P75">
+        <v>2647</v>
+      </c>
+      <c r="Q75">
+        <v>-314</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>12209</v>
+      </c>
+      <c r="U75">
+        <v>511</v>
+      </c>
+      <c r="V75">
+        <v>604</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-223</v>
+      </c>
+      <c r="Y75">
+        <v>217</v>
+      </c>
+      <c r="Z75">
+        <v>112</v>
+      </c>
+      <c r="AA75">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>-169</v>
+      </c>
+      <c r="D76">
+        <v>2379</v>
+      </c>
+      <c r="E76">
+        <v>783</v>
+      </c>
+      <c r="F76">
+        <v>989</v>
+      </c>
+      <c r="G76">
+        <v>2175</v>
+      </c>
+      <c r="H76">
+        <v>18106</v>
+      </c>
+      <c r="I76">
+        <v>1565</v>
+      </c>
+      <c r="J76">
+        <v>1837</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2525</v>
+      </c>
+      <c r="O76">
+        <v>6230</v>
+      </c>
+      <c r="P76">
+        <v>2622</v>
+      </c>
+      <c r="Q76">
+        <v>207</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>11876</v>
+      </c>
+      <c r="U76">
+        <v>643</v>
+      </c>
+      <c r="V76">
+        <v>789</v>
+      </c>
+      <c r="W76">
+        <v>-54</v>
+      </c>
+      <c r="X76">
+        <v>-257</v>
+      </c>
+      <c r="Y76">
+        <v>195</v>
+      </c>
+      <c r="Z76">
+        <v>456</v>
+      </c>
+      <c r="AA76">
+        <v>-169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>231</v>
+      </c>
+      <c r="D77">
+        <v>2411</v>
+      </c>
+      <c r="E77">
+        <v>848</v>
+      </c>
+      <c r="F77">
+        <v>973</v>
+      </c>
+      <c r="G77">
+        <v>1923</v>
+      </c>
+      <c r="H77">
+        <v>18078</v>
+      </c>
+      <c r="I77">
+        <v>1410</v>
+      </c>
+      <c r="J77">
+        <v>1838</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>2460</v>
+      </c>
+      <c r="O77">
+        <v>6222</v>
+      </c>
+      <c r="P77">
+        <v>2610</v>
+      </c>
+      <c r="Q77">
+        <v>-205</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>11856</v>
+      </c>
+      <c r="U77">
+        <v>437</v>
+      </c>
+      <c r="V77">
+        <v>894</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-205</v>
+      </c>
+      <c r="Y77">
+        <v>183</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>361</v>
+      </c>
+      <c r="D78">
+        <v>2641</v>
+      </c>
+      <c r="E78">
+        <v>1032</v>
+      </c>
+      <c r="F78">
+        <v>1070</v>
+      </c>
+      <c r="G78">
+        <v>2191</v>
+      </c>
+      <c r="H78">
+        <v>19088</v>
+      </c>
+      <c r="I78">
+        <v>1394</v>
+      </c>
+      <c r="J78">
+        <v>1839</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2496</v>
+      </c>
+      <c r="O78">
+        <v>6952</v>
+      </c>
+      <c r="P78">
+        <v>3167</v>
+      </c>
+      <c r="Q78">
+        <v>192</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>2323</v>
+      </c>
+      <c r="T78">
+        <v>12136</v>
+      </c>
+      <c r="U78">
+        <v>631</v>
+      </c>
+      <c r="V78">
+        <v>828</v>
+      </c>
+      <c r="W78">
+        <v>-73</v>
+      </c>
+      <c r="X78">
+        <v>-103</v>
+      </c>
+      <c r="Y78">
+        <v>726</v>
+      </c>
+      <c r="Z78">
+        <v>56</v>
+      </c>
+      <c r="AA78">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>289</v>
+      </c>
+      <c r="D79">
+        <v>2010</v>
+      </c>
+      <c r="E79">
+        <v>555</v>
+      </c>
+      <c r="F79">
+        <v>731</v>
+      </c>
+      <c r="G79">
+        <v>2069</v>
+      </c>
+      <c r="H79">
+        <v>19051</v>
+      </c>
+      <c r="I79">
+        <v>1071</v>
+      </c>
+      <c r="J79">
+        <v>2140</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-450</v>
+      </c>
+      <c r="N79">
+        <v>2080</v>
+      </c>
+      <c r="O79">
+        <v>6840</v>
+      </c>
+      <c r="P79">
+        <v>2913</v>
+      </c>
+      <c r="Q79">
+        <v>153</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>12211</v>
+      </c>
+      <c r="U79">
+        <v>784</v>
+      </c>
+      <c r="V79">
+        <v>825</v>
+      </c>
+      <c r="W79">
+        <v>-73</v>
+      </c>
+      <c r="X79">
+        <v>9</v>
+      </c>
+      <c r="Y79">
+        <v>146</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-439</v>
+      </c>
+      <c r="D80">
+        <v>1143</v>
+      </c>
+      <c r="E80">
+        <v>566</v>
+      </c>
+      <c r="F80">
+        <v>360</v>
+      </c>
+      <c r="G80">
+        <v>1195</v>
+      </c>
+      <c r="H80">
+        <v>17906</v>
+      </c>
+      <c r="I80">
+        <v>847</v>
+      </c>
+      <c r="J80">
+        <v>2054</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1584</v>
+      </c>
+      <c r="O80">
+        <v>6166</v>
+      </c>
+      <c r="P80">
+        <v>2427</v>
+      </c>
+      <c r="Q80">
+        <v>-609</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>11740</v>
+      </c>
+      <c r="U80">
+        <v>180</v>
+      </c>
+      <c r="V80">
+        <v>329</v>
+      </c>
+      <c r="W80">
+        <v>-91</v>
+      </c>
+      <c r="X80">
+        <v>-513</v>
+      </c>
+      <c r="Y80">
+        <v>124</v>
+      </c>
+      <c r="Z80">
+        <v>-1</v>
+      </c>
+      <c r="AA80">
+        <v>-439</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>-20</v>
+      </c>
+      <c r="D81">
+        <v>1857</v>
+      </c>
+      <c r="E81">
+        <v>662</v>
+      </c>
+      <c r="F81">
+        <v>633</v>
+      </c>
+      <c r="G81">
+        <v>2420</v>
+      </c>
+      <c r="H81">
+        <v>18977</v>
+      </c>
+      <c r="I81">
+        <v>1003</v>
+      </c>
+      <c r="J81">
+        <v>3148</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1688</v>
+      </c>
+      <c r="O81">
+        <v>7323</v>
+      </c>
+      <c r="P81">
+        <v>3500</v>
+      </c>
+      <c r="Q81">
+        <v>1142</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>11654</v>
+      </c>
+      <c r="U81">
+        <v>1325</v>
+      </c>
+      <c r="V81">
+        <v>392</v>
+      </c>
+      <c r="W81">
+        <v>-91</v>
+      </c>
+      <c r="X81">
+        <v>986</v>
+      </c>
+      <c r="Y81">
+        <v>113</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>-30</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2016</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>695</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>745</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2595</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>19229</v>
       </c>
-      <c r="I42">
-        <v>1023</v>
-      </c>
-      <c r="J42">
+      <c r="I82">
+        <v>1020</v>
+      </c>
+      <c r="J82">
         <v>3160</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1906</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>7660</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>4066</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>110</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>1853</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>11569</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1442</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>537</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-91</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-101</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>649</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>-30</v>
       </c>
     </row>
